--- a/Ultimate Leetcode DSA Sheet.xlsx
+++ b/Ultimate Leetcode DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.SDE\04. Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25C58B-2D49-429E-9D62-9AABA326A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB8C318-1600-4DA1-ACBE-409A39C60CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{B38EDBA5-01EF-4A3D-9C7E-11FF357A630F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="618">
   <si>
     <t>Title</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Abbreviating the Product of a Range</t>
   </si>
   <si>
-    <t>Math, Simulation</t>
-  </si>
-  <si>
     <t>Math, Brainteaser</t>
   </si>
   <si>
@@ -693,9 +690,6 @@
     <t>Minimum Impossible OR</t>
   </si>
   <si>
-    <t>Squirrel Simulation</t>
-  </si>
-  <si>
     <t>Find the Winner of an Array Game</t>
   </si>
   <si>
@@ -792,12 +786,6 @@
     <t>Array, Bit Manipulation</t>
   </si>
   <si>
-    <t>Array, Simulation</t>
-  </si>
-  <si>
-    <t>Array, Math, Simulation</t>
-  </si>
-  <si>
     <t>Array, Math</t>
   </si>
   <si>
@@ -810,9 +798,6 @@
     <t>Array, Backtracking, Bit Manipulation</t>
   </si>
   <si>
-    <t>Array, Brainteaser, Simulation</t>
-  </si>
-  <si>
     <t>Array, Math, Bit Manipulation, Brainteaser, Game Theory</t>
   </si>
   <si>
@@ -834,9 +819,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Math, Bit Manipulation, Simulation</t>
-  </si>
-  <si>
     <t>https://algo.monster/liteproblems/</t>
   </si>
   <si>
@@ -1525,13 +1507,394 @@
   </si>
   <si>
     <t>Editorial</t>
+  </si>
+  <si>
+    <t>Find the Number of Good Pairs I</t>
+  </si>
+  <si>
+    <t>Find Anagram Mappings</t>
+  </si>
+  <si>
+    <t>Find the XOR of Numbers Which Appear Twice</t>
+  </si>
+  <si>
+    <t>Find Common Elements Between Two Arrays</t>
+  </si>
+  <si>
+    <t>Subarrays Distinct Element Sum of Squares I</t>
+  </si>
+  <si>
+    <t>Find the Difference of Two Arrays</t>
+  </si>
+  <si>
+    <t>Find the Distinct Difference Array</t>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>N-Repeated Element in Size 2N Array</t>
+  </si>
+  <si>
+    <t>Two Out of Three</t>
+  </si>
+  <si>
+    <t>Distribute Candies</t>
+  </si>
+  <si>
+    <t>Count Largest Group</t>
+  </si>
+  <si>
+    <t>Find Subarrays With Equal Sum</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Counting Elements</t>
+  </si>
+  <si>
+    <t>Count Distinct Numbers on Board</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Collect Elements</t>
+  </si>
+  <si>
+    <t>Max Pair Sum in an Array</t>
+  </si>
+  <si>
+    <t>Degree of an Array</t>
+  </si>
+  <si>
+    <t>Check Array Formation Through Concatenation</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Check if The Number is Fascinating</t>
+  </si>
+  <si>
+    <t>Find the Losers of the Circular Game</t>
+  </si>
+  <si>
+    <t>Group the People Given the Group Size They Belong To</t>
+  </si>
+  <si>
+    <t>Convert an Array Into a 2D Array With Conditions</t>
+  </si>
+  <si>
+    <t>Find the Prefix Common Array of Two Arrays</t>
+  </si>
+  <si>
+    <t>Finding the Users Active Minutes</t>
+  </si>
+  <si>
+    <t>Count Number of Distinct Integers After Reverse Operations</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>Restore the Array From Adjacent Pairs</t>
+  </si>
+  <si>
+    <t>Find Occurrences of an Element in an Array</t>
+  </si>
+  <si>
+    <t>Maximum Linear Stock Score</t>
+  </si>
+  <si>
+    <t>Number of Divisible Triplet Sums</t>
+  </si>
+  <si>
+    <t>Replace Elements in an Array</t>
+  </si>
+  <si>
+    <t>4Sum II</t>
+  </si>
+  <si>
+    <t>Count Artifacts That Can Be Extracted</t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Brick Wall</t>
+  </si>
+  <si>
+    <t>Task Scheduler II</t>
+  </si>
+  <si>
+    <t>Card Flipping Game</t>
+  </si>
+  <si>
+    <t>Smallest Integer Divisible by K</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference Queries</t>
+  </si>
+  <si>
+    <t>Count Number of Bad Pairs</t>
+  </si>
+  <si>
+    <t>Find the Number of Distinct Colors Among the Balls</t>
+  </si>
+  <si>
+    <t>Prison Cells After N Days</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Count Pairs of Points With Distance k</t>
+  </si>
+  <si>
+    <t>Sum of Matrix After Queries</t>
+  </si>
+  <si>
+    <t>Count Good Meals</t>
+  </si>
+  <si>
+    <t>Minimum Seconds to Equalize a Circular Array</t>
+  </si>
+  <si>
+    <t>Find the Number of Good Pairs II</t>
+  </si>
+  <si>
+    <t>Triples with Bitwise AND Equal To Zero</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>Maximum Equal Frequency</t>
+  </si>
+  <si>
+    <t>Grid Illumination</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Array, Hash Table</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Hash Table, Math</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Math</t>
+  </si>
+  <si>
+    <t>Math,  Simulation</t>
+  </si>
+  <si>
+    <t>Math, Bit Manipulation,  Simulation</t>
+  </si>
+  <si>
+    <t>Array,  Simulation</t>
+  </si>
+  <si>
+    <t>Array, Math,  Simulation</t>
+  </si>
+  <si>
+    <t>Array, Brainteaser,  Simulation</t>
+  </si>
+  <si>
+    <t>Squirrel  Simulation</t>
+  </si>
+  <si>
+    <t>Array, Hash Table Simulation</t>
+  </si>
+  <si>
+    <t>Walking Robot  Simulation</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Math, Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Simulation</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Math, Simulation</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/3162</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/760</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/3158</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2956</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2913</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2215</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2670</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1207</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/961</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2032</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/575</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1399</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2395</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/448</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1426</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2549</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2869</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2815</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/697</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1640</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2729</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2682</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1282</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2610</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2657</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1817</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2442</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/442</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1743</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/3159</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2898</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2964</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2295</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/454</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2201</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/447</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/554</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2365</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/822</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1015</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1906</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2364</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/3160</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/874</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/957</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/356</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2857</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2718</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1711</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/2808</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/3164</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/982</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/41</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1224</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/1001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +2007,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1681,7 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1759,16 +2154,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,14 +2213,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1842,6 +2222,64 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2161,8 +2599,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:L574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D136" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93:H217"/>
+    <sheetView tabSelected="1" topLeftCell="D229" workbookViewId="0">
+      <selection activeCell="J246" sqref="J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2611,7 @@
     <col min="5" max="5" width="52.296875" customWidth="1"/>
     <col min="6" max="6" width="16.09765625" customWidth="1"/>
     <col min="7" max="7" width="9.09765625" customWidth="1"/>
-    <col min="8" max="8" width="35.19921875" customWidth="1"/>
+    <col min="8" max="8" width="37.3984375" customWidth="1"/>
     <col min="9" max="12" width="35.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2186,22 +2624,22 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -2213,15 +2651,15 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>496</v>
+        <v>258</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
@@ -2247,15 +2685,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="L6" s="54" t="s">
-        <v>268</v>
+        <v>260</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="L6" s="51" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -2275,13 +2713,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -2301,13 +2739,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
       <c r="L8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -2328,12 +2766,12 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+        <v>265</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
       <c r="L9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -2354,12 +2792,12 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+        <v>266</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
       <c r="L10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -2373,19 +2811,19 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+        <v>267</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
       <c r="L11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -2406,12 +2844,12 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+        <v>268</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
       <c r="L12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -2432,12 +2870,12 @@
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+        <v>269</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
       <c r="L13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2458,12 +2896,12 @@
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+        <v>270</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
       <c r="L14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -2484,12 +2922,12 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+        <v>271</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="L15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -2510,12 +2948,12 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+        <v>272</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
       <c r="L16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -2536,12 +2974,12 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+        <v>273</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
       <c r="L17" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -2562,12 +3000,12 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+        <v>274</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="L18" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -2588,12 +3026,12 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
+        <v>275</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
       <c r="L19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -2614,12 +3052,12 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+        <v>276</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
       <c r="L20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -2633,19 +3071,19 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+        <v>277</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
       <c r="L21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -2666,12 +3104,12 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+        <v>278</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
       <c r="L22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -2685,19 +3123,19 @@
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+        <v>279</v>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
       <c r="L23" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -2711,19 +3149,19 @@
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
+        <v>280</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
       <c r="L24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -2737,19 +3175,19 @@
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+        <v>281</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
       <c r="L25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -2770,12 +3208,12 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+        <v>282</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="L26" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -2796,12 +3234,12 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+        <v>283</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
       <c r="L27" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -2822,12 +3260,12 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+        <v>284</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
       <c r="L28" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -2848,12 +3286,12 @@
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+        <v>285</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -2874,12 +3312,12 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+        <v>286</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -2900,12 +3338,12 @@
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+        <v>287</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -2926,12 +3364,12 @@
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+        <v>288</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -2952,12 +3390,12 @@
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+        <v>289</v>
+      </c>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -2978,12 +3416,12 @@
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+        <v>290</v>
+      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
@@ -3004,12 +3442,12 @@
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+        <v>291</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -3030,12 +3468,12 @@
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
+        <v>292</v>
+      </c>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
@@ -3049,19 +3487,19 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+        <v>293</v>
+      </c>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
@@ -3082,12 +3520,12 @@
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+        <v>294</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -3108,12 +3546,12 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+        <v>295</v>
+      </c>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
@@ -3127,19 +3565,19 @@
         <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+        <v>296</v>
+      </c>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -3160,12 +3598,12 @@
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+        <v>297</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
       <c r="L41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -3186,12 +3624,12 @@
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+        <v>298</v>
+      </c>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
       <c r="L42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
@@ -3205,19 +3643,19 @@
         <v>43</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+        <v>299</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
@@ -3238,12 +3676,12 @@
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+        <v>300</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
       <c r="L44" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
@@ -3257,19 +3695,19 @@
         <v>45</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+        <v>301</v>
+      </c>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
       <c r="L45" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
@@ -3290,12 +3728,12 @@
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+        <v>302</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
       <c r="L46" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
@@ -3309,19 +3747,19 @@
         <v>47</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+        <v>303</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
       <c r="L47" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -3342,12 +3780,12 @@
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+        <v>304</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
       <c r="L48" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -3368,12 +3806,12 @@
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+        <v>305</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
       <c r="L49" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
@@ -3394,12 +3832,12 @@
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+        <v>306</v>
+      </c>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
       <c r="L50" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -3420,12 +3858,12 @@
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+        <v>307</v>
+      </c>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
       <c r="L51" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -3439,19 +3877,19 @@
         <v>52</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
+        <v>308</v>
+      </c>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -3472,12 +3910,12 @@
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
+        <v>309</v>
+      </c>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
       <c r="L53" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -3491,19 +3929,19 @@
         <v>54</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
+        <v>310</v>
+      </c>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
       <c r="L54" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -3524,12 +3962,12 @@
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
+        <v>311</v>
+      </c>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
@@ -3550,12 +3988,12 @@
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
+        <v>312</v>
+      </c>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
       <c r="L56" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
@@ -3576,12 +4014,12 @@
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
+        <v>313</v>
+      </c>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
       <c r="L57" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
@@ -3602,12 +4040,12 @@
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
+        <v>314</v>
+      </c>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
       <c r="L58" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
@@ -3628,12 +4066,12 @@
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
+        <v>315</v>
+      </c>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
       <c r="L59" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
@@ -3654,12 +4092,12 @@
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
+        <v>316</v>
+      </c>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
       <c r="L60" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
@@ -3680,17 +4118,17 @@
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
+        <v>317</v>
+      </c>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
       <c r="L61" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
@@ -3698,10 +4136,10 @@
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
       <c r="L62" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
@@ -3712,22 +4150,22 @@
         <v>1486</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
+        <v>318</v>
+      </c>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
       <c r="L63" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
@@ -3738,22 +4176,22 @@
         <v>1342</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
+        <v>319</v>
+      </c>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
       <c r="L64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
@@ -3764,22 +4202,22 @@
         <v>2220</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
+        <v>320</v>
+      </c>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
       <c r="L65" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -3790,22 +4228,22 @@
         <v>461</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
+        <v>321</v>
+      </c>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
       <c r="L66" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
@@ -3816,22 +4254,22 @@
         <v>2595</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
+        <v>322</v>
+      </c>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
       <c r="L67" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
@@ -3842,22 +4280,22 @@
         <v>762</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
+        <v>323</v>
+      </c>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
       <c r="L68" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
@@ -3868,22 +4306,22 @@
         <v>476</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
       <c r="L69" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
@@ -3894,22 +4332,22 @@
         <v>868</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
+        <v>325</v>
+      </c>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
       <c r="L70" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
@@ -3920,22 +4358,22 @@
         <v>693</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
+        <v>326</v>
+      </c>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
       <c r="L71" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
@@ -3946,22 +4384,22 @@
         <v>1009</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
+        <v>327</v>
+      </c>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
       <c r="L72" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
@@ -3972,22 +4410,22 @@
         <v>405</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
+        <v>328</v>
+      </c>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
       <c r="L73" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
@@ -3998,22 +4436,22 @@
         <v>1318</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
+        <v>329</v>
+      </c>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
       <c r="L74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
@@ -4024,22 +4462,22 @@
         <v>1680</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>266</v>
+        <v>552</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
+        <v>330</v>
+      </c>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
       <c r="L75" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
@@ -4050,22 +4488,22 @@
         <v>371</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
+        <v>331</v>
+      </c>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
       <c r="L76" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
@@ -4076,22 +4514,22 @@
         <v>201</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
+        <v>332</v>
+      </c>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
@@ -4102,22 +4540,22 @@
         <v>3133</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
+        <v>333</v>
+      </c>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
       <c r="L78" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
@@ -4128,22 +4566,22 @@
         <v>2749</v>
       </c>
       <c r="D79" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
+        <v>334</v>
+      </c>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
       <c r="L79" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
@@ -4154,27 +4592,27 @@
         <v>29</v>
       </c>
       <c r="D80" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
+        <v>335</v>
+      </c>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
       <c r="L80" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="57"/>
       <c r="D81" s="57"/>
@@ -4182,10 +4620,10 @@
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
       <c r="L81" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
@@ -4196,22 +4634,22 @@
         <v>342</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
+        <v>336</v>
+      </c>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
       <c r="L82" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
@@ -4222,22 +4660,22 @@
         <v>231</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
+        <v>337</v>
+      </c>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
       <c r="L83" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
@@ -4248,22 +4686,22 @@
         <v>326</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
+        <v>338</v>
+      </c>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
       <c r="L84" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
@@ -4274,22 +4712,22 @@
         <v>779</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
+        <v>339</v>
+      </c>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
       <c r="L85" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
@@ -4300,22 +4738,22 @@
         <v>390</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
+        <v>340</v>
+      </c>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
       <c r="L86" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
@@ -4326,22 +4764,22 @@
         <v>1922</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
+        <v>341</v>
+      </c>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
       <c r="L87" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
@@ -4352,22 +4790,22 @@
         <v>50</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
+        <v>342</v>
+      </c>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
       <c r="L88" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
@@ -4378,22 +4816,22 @@
         <v>2550</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
+        <v>343</v>
+      </c>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
       <c r="L89" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
@@ -4404,22 +4842,22 @@
         <v>60</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
+        <v>344</v>
+      </c>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
       <c r="L90" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
@@ -4430,27 +4868,27 @@
         <v>1808</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
+        <v>345</v>
+      </c>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
       <c r="L91" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="57"/>
       <c r="D92" s="57"/>
@@ -4458,10 +4896,10 @@
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
       <c r="L92" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -4472,24 +4910,24 @@
         <v>1920</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F93" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="53" t="s">
-        <v>265</v>
+        <v>553</v>
+      </c>
+      <c r="F93" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="50" t="s">
+        <v>260</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
+        <v>346</v>
+      </c>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
       <c r="L93" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
@@ -4500,22 +4938,22 @@
         <v>1929</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F94" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="28"/>
       <c r="H94" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
+        <v>347</v>
+      </c>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
       <c r="L94" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
@@ -4526,22 +4964,22 @@
         <v>1470</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
+        <v>348</v>
+      </c>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
       <c r="L95" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
@@ -4552,22 +4990,22 @@
         <v>2798</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E96" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F96" s="45" t="s">
+      <c r="E96" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="28"/>
       <c r="H96" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
+        <v>349</v>
+      </c>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
       <c r="L96" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
@@ -4578,22 +5016,22 @@
         <v>1431</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="28"/>
       <c r="H97" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
+        <v>350</v>
+      </c>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
       <c r="L97" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
@@ -4604,22 +5042,22 @@
         <v>2859</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F98" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="28"/>
       <c r="H98" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
+        <v>351</v>
+      </c>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
       <c r="L98" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
@@ -4630,22 +5068,22 @@
         <v>1720</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F99" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="28"/>
       <c r="H99" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
+        <v>352</v>
+      </c>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
       <c r="L99" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
@@ -4656,22 +5094,22 @@
         <v>1389</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F100" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F100" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="28"/>
       <c r="H100" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
+        <v>353</v>
+      </c>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
       <c r="L100" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
@@ -4682,22 +5120,22 @@
         <v>1313</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F101" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="28"/>
       <c r="H101" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
+        <v>354</v>
+      </c>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
       <c r="L101" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -4708,22 +5146,22 @@
         <v>3065</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F102" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="28"/>
       <c r="H102" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
+        <v>355</v>
+      </c>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
       <c r="L102" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
@@ -4734,22 +5172,22 @@
         <v>2535</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F103" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F103" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="28"/>
       <c r="H103" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
+        <v>356</v>
+      </c>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
       <c r="L103" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
@@ -4760,22 +5198,22 @@
         <v>3131</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F104" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="28"/>
       <c r="H104" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
+        <v>357</v>
+      </c>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
       <c r="L104" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
@@ -4786,22 +5224,22 @@
         <v>2960</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F105" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F105" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="28"/>
       <c r="H105" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
       <c r="L105" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
@@ -4812,22 +5250,22 @@
         <v>2176</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F106" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="28"/>
       <c r="H106" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
+        <v>359</v>
+      </c>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
       <c r="L106" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
@@ -4838,22 +5276,22 @@
         <v>2553</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F107" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F107" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="28"/>
       <c r="H107" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
+        <v>360</v>
+      </c>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
       <c r="L107" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
@@ -4864,22 +5302,22 @@
         <v>1252</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F108" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="F108" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="28"/>
       <c r="H108" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
+        <v>361</v>
+      </c>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
       <c r="L108" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
@@ -4890,22 +5328,22 @@
         <v>1725</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F109" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="28"/>
       <c r="H109" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
+        <v>362</v>
+      </c>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
       <c r="L109" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
@@ -4916,22 +5354,22 @@
         <v>1295</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F110" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="28"/>
       <c r="H110" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
+        <v>363</v>
+      </c>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
       <c r="L110" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
@@ -4942,22 +5380,22 @@
         <v>1085</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F111" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="28"/>
       <c r="H111" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
+        <v>364</v>
+      </c>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
       <c r="L111" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
@@ -4968,22 +5406,22 @@
         <v>1304</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F112" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F112" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="28"/>
       <c r="H112" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
+        <v>365</v>
+      </c>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
       <c r="L112" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
@@ -4994,22 +5432,22 @@
         <v>3151</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F113" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="28"/>
       <c r="H113" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
+        <v>366</v>
+      </c>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
       <c r="L113" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
@@ -5020,22 +5458,22 @@
         <v>1450</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="28"/>
       <c r="H114" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
+        <v>367</v>
+      </c>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
       <c r="L114" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
@@ -5046,22 +5484,22 @@
         <v>2917</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F115" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F115" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="28"/>
       <c r="H115" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
+        <v>368</v>
+      </c>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
       <c r="L115" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
@@ -5072,22 +5510,22 @@
         <v>3079</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F116" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F116" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="28"/>
       <c r="H116" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
+        <v>369</v>
+      </c>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
       <c r="L116" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
@@ -5098,22 +5536,22 @@
         <v>136</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F117" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F117" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="28"/>
       <c r="H117" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
+        <v>370</v>
+      </c>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
       <c r="L117" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
@@ -5124,22 +5562,22 @@
         <v>2057</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E118" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F118" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="28"/>
       <c r="H118" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
+        <v>371</v>
+      </c>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
       <c r="L118" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
@@ -5150,22 +5588,22 @@
         <v>3069</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F119" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F119" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="28"/>
       <c r="H119" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
+        <v>372</v>
+      </c>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
       <c r="L119" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.3">
@@ -5176,22 +5614,22 @@
         <v>1299</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F120" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="28"/>
       <c r="H120" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
+        <v>373</v>
+      </c>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
       <c r="L120" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
@@ -5202,22 +5640,22 @@
         <v>2980</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F121" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G121" s="28"/>
       <c r="H121" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
+        <v>374</v>
+      </c>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
       <c r="L121" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.3">
@@ -5228,22 +5666,22 @@
         <v>908</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F122" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="28"/>
       <c r="H122" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
+        <v>375</v>
+      </c>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
       <c r="L122" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.3">
@@ -5254,22 +5692,22 @@
         <v>1779</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E123" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G123" s="28"/>
       <c r="H123" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
+        <v>376</v>
+      </c>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
       <c r="L123" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
@@ -5280,22 +5718,22 @@
         <v>2899</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F124" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F124" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G124" s="28"/>
       <c r="H124" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
+        <v>377</v>
+      </c>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
       <c r="L124" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
@@ -5306,22 +5744,22 @@
         <v>2303</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F125" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F125" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G125" s="28"/>
       <c r="H125" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
+        <v>378</v>
+      </c>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
       <c r="L125" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
@@ -5332,22 +5770,22 @@
         <v>1822</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F126" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G126" s="28"/>
       <c r="H126" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
+        <v>379</v>
+      </c>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
       <c r="L126" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
@@ -5358,22 +5796,22 @@
         <v>2908</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G127" s="28"/>
       <c r="H127" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
+        <v>380</v>
+      </c>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
       <c r="L127" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.3">
@@ -5384,22 +5822,22 @@
         <v>2717</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F128" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F128" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G128" s="28"/>
       <c r="H128" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
+        <v>381</v>
+      </c>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
       <c r="L128" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.3">
@@ -5410,22 +5848,22 @@
         <v>1550</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E129" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F129" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G129" s="28"/>
       <c r="H129" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
+        <v>382</v>
+      </c>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
       <c r="L129" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.3">
@@ -5436,22 +5874,22 @@
         <v>2293</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F130" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F130" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G130" s="28"/>
       <c r="H130" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
+        <v>383</v>
+      </c>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
       <c r="L130" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.3">
@@ -5462,22 +5900,22 @@
         <v>1800</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F131" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="28"/>
       <c r="H131" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
+        <v>384</v>
+      </c>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
       <c r="L131" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.3">
@@ -5488,22 +5926,22 @@
         <v>896</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E132" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F132" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G132" s="28"/>
       <c r="H132" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
+        <v>385</v>
+      </c>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
       <c r="L132" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.3">
@@ -5514,22 +5952,22 @@
         <v>1287</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F133" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G133" s="28"/>
       <c r="H133" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
+        <v>386</v>
+      </c>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
       <c r="L133" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.3">
@@ -5540,22 +5978,22 @@
         <v>2210</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F134" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G134" s="28"/>
       <c r="H134" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
+        <v>387</v>
+      </c>
+      <c r="I134" s="51"/>
+      <c r="J134" s="51"/>
       <c r="L134" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.3">
@@ -5566,22 +6004,22 @@
         <v>2455</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F135" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F135" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="28"/>
       <c r="H135" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
+        <v>388</v>
+      </c>
+      <c r="I135" s="51"/>
+      <c r="J135" s="51"/>
       <c r="L135" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.3">
@@ -5592,22 +6030,22 @@
         <v>485</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E136" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F136" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F136" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G136" s="28"/>
       <c r="H136" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
+        <v>389</v>
+      </c>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
       <c r="L136" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.3">
@@ -5618,22 +6056,22 @@
         <v>1560</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F137" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F137" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="28"/>
       <c r="H137" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
+        <v>390</v>
+      </c>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51"/>
       <c r="L137" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.3">
@@ -5644,22 +6082,22 @@
         <v>1437</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F138" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F138" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="28"/>
       <c r="H138" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
+        <v>391</v>
+      </c>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
       <c r="L138" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.3">
@@ -5670,22 +6108,22 @@
         <v>2855</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F139" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G139" s="28"/>
       <c r="H139" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
+        <v>392</v>
+      </c>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
       <c r="L139" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.3">
@@ -5696,22 +6134,22 @@
         <v>3105</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F140" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G140" s="28"/>
       <c r="H140" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
+        <v>393</v>
+      </c>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
       <c r="L140" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.3">
@@ -5722,22 +6160,22 @@
         <v>495</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F141" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F141" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G141" s="28"/>
       <c r="H141" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
+        <v>394</v>
+      </c>
+      <c r="I141" s="51"/>
+      <c r="J141" s="51"/>
       <c r="L141" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
@@ -5748,22 +6186,22 @@
         <v>2016</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E142" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F142" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G142" s="28"/>
       <c r="H142" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
+        <v>395</v>
+      </c>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
       <c r="L142" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.3">
@@ -5774,22 +6212,22 @@
         <v>598</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F143" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G143" s="28"/>
       <c r="H143" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
+        <v>396</v>
+      </c>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
       <c r="L143" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.3">
@@ -5800,22 +6238,22 @@
         <v>1848</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E144" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F144" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G144" s="28"/>
       <c r="H144" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
+        <v>397</v>
+      </c>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
       <c r="L144" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.3">
@@ -5826,22 +6264,22 @@
         <v>1184</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E145" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F145" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E145" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F145" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G145" s="28"/>
       <c r="H145" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
+        <v>398</v>
+      </c>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
       <c r="L145" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
@@ -5852,22 +6290,22 @@
         <v>1243</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F146" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F146" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="28"/>
       <c r="H146" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
+        <v>399</v>
+      </c>
+      <c r="I146" s="51"/>
+      <c r="J146" s="51"/>
       <c r="L146" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
@@ -5878,22 +6316,22 @@
         <v>1228</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F147" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F147" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="28"/>
       <c r="H147" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
+        <v>400</v>
+      </c>
+      <c r="I147" s="51"/>
+      <c r="J147" s="51"/>
       <c r="L147" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
@@ -5904,22 +6342,22 @@
         <v>3038</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F148" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F148" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G148" s="28"/>
       <c r="H148" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
+        <v>401</v>
+      </c>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
       <c r="L148" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
@@ -5930,22 +6368,22 @@
         <v>1752</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E149" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F149" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="28"/>
       <c r="H149" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
+        <v>402</v>
+      </c>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
       <c r="L149" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
@@ -5956,22 +6394,22 @@
         <v>228</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E150" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F150" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E150" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G150" s="28"/>
       <c r="H150" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="I150" s="54"/>
-      <c r="J150" s="54"/>
+        <v>403</v>
+      </c>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
       <c r="L150" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
@@ -5982,22 +6420,22 @@
         <v>1646</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F151" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F151" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G151" s="28"/>
       <c r="H151" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
+        <v>404</v>
+      </c>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
       <c r="L151" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
@@ -6008,22 +6446,22 @@
         <v>674</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E152" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F152" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E152" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F152" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G152" s="28"/>
       <c r="H152" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="I152" s="54"/>
-      <c r="J152" s="54"/>
+        <v>405</v>
+      </c>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
       <c r="L152" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
@@ -6034,22 +6472,22 @@
         <v>2432</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E153" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F153" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F153" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G153" s="28"/>
       <c r="H153" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="I153" s="54"/>
-      <c r="J153" s="54"/>
+        <v>406</v>
+      </c>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
       <c r="L153" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
@@ -6060,22 +6498,22 @@
         <v>2644</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F154" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F154" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G154" s="28"/>
       <c r="H154" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="I154" s="54"/>
-      <c r="J154" s="54"/>
+        <v>407</v>
+      </c>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51"/>
       <c r="L154" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
@@ -6086,22 +6524,22 @@
         <v>1018</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F155" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F155" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G155" s="28"/>
       <c r="H155" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="I155" s="54"/>
-      <c r="J155" s="54"/>
+        <v>408</v>
+      </c>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
       <c r="L155" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
@@ -6112,22 +6550,22 @@
         <v>66</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F156" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F156" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G156" s="28"/>
       <c r="H156" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="I156" s="54"/>
-      <c r="J156" s="54"/>
+        <v>409</v>
+      </c>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
       <c r="L156" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
@@ -6138,22 +6576,22 @@
         <v>2873</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E157" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F157" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E157" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F157" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G157" s="28"/>
       <c r="H157" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="I157" s="54"/>
-      <c r="J157" s="54"/>
+        <v>410</v>
+      </c>
+      <c r="I157" s="51"/>
+      <c r="J157" s="51"/>
       <c r="L157" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
@@ -6164,22 +6602,22 @@
         <v>989</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F158" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F158" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G158" s="28"/>
       <c r="H158" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="I158" s="54"/>
-      <c r="J158" s="54"/>
+        <v>411</v>
+      </c>
+      <c r="I158" s="51"/>
+      <c r="J158" s="51"/>
       <c r="L158" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
@@ -6190,22 +6628,22 @@
         <v>717</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E159" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F159" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E159" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G159" s="28"/>
       <c r="H159" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="I159" s="54"/>
-      <c r="J159" s="54"/>
+        <v>412</v>
+      </c>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
       <c r="L159" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
@@ -6216,22 +6654,22 @@
         <v>2239</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E160" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F160" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E160" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F160" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="28"/>
       <c r="H160" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="I160" s="54"/>
-      <c r="J160" s="54"/>
+        <v>413</v>
+      </c>
+      <c r="I160" s="51"/>
+      <c r="J160" s="51"/>
       <c r="L160" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.3">
@@ -6242,22 +6680,22 @@
         <v>3000</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E161" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F161" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E161" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F161" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G161" s="28"/>
       <c r="H161" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="I161" s="54"/>
-      <c r="J161" s="54"/>
+        <v>414</v>
+      </c>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
       <c r="L161" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.3">
@@ -6268,22 +6706,22 @@
         <v>2660</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F162" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F162" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="28"/>
       <c r="H162" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="I162" s="54"/>
-      <c r="J162" s="54"/>
+        <v>415</v>
+      </c>
+      <c r="I162" s="51"/>
+      <c r="J162" s="51"/>
       <c r="L162" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.3">
@@ -6294,22 +6732,22 @@
         <v>163</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E163" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F163" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E163" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F163" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G163" s="28"/>
       <c r="H163" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="I163" s="54"/>
-      <c r="J163" s="54"/>
+        <v>416</v>
+      </c>
+      <c r="I163" s="51"/>
+      <c r="J163" s="51"/>
       <c r="L163" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.3">
@@ -6320,22 +6758,22 @@
         <v>941</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E164" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F164" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F164" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="28"/>
       <c r="H164" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="I164" s="54"/>
-      <c r="J164" s="54"/>
+        <v>417</v>
+      </c>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
       <c r="L164" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.3">
@@ -6346,22 +6784,22 @@
         <v>1909</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E165" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F165" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E165" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F165" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G165" s="28"/>
       <c r="H165" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="I165" s="54"/>
-      <c r="J165" s="54"/>
+        <v>418</v>
+      </c>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
       <c r="L165" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.3">
@@ -6372,22 +6810,22 @@
         <v>2433</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F166" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F166" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G166" s="28"/>
       <c r="H166" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
+        <v>419</v>
+      </c>
+      <c r="I166" s="51"/>
+      <c r="J166" s="51"/>
       <c r="L166" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.3">
@@ -6398,22 +6836,22 @@
         <v>2997</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F167" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F167" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G167" s="28"/>
       <c r="H167" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
+        <v>420</v>
+      </c>
+      <c r="I167" s="51"/>
+      <c r="J167" s="51"/>
       <c r="L167" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.3">
@@ -6424,22 +6862,22 @@
         <v>2079</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F168" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F168" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G168" s="28"/>
       <c r="H168" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
+        <v>421</v>
+      </c>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
       <c r="L168" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.3">
@@ -6450,22 +6888,22 @@
         <v>2317</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F169" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F169" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G169" s="28"/>
       <c r="H169" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I169" s="54"/>
-      <c r="J169" s="54"/>
+        <v>422</v>
+      </c>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
       <c r="L169" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.3">
@@ -6476,22 +6914,22 @@
         <v>2113</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E170" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F170" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F170" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G170" s="28"/>
       <c r="H170" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="I170" s="54"/>
-      <c r="J170" s="54"/>
+        <v>423</v>
+      </c>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51"/>
       <c r="L170" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.3">
@@ -6502,22 +6940,22 @@
         <v>1806</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F171" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="F171" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G171" s="28"/>
       <c r="H171" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
+        <v>424</v>
+      </c>
+      <c r="I171" s="51"/>
+      <c r="J171" s="51"/>
       <c r="L171" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.3">
@@ -6528,22 +6966,22 @@
         <v>1503</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F172" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="F172" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G172" s="28"/>
       <c r="H172" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
+        <v>425</v>
+      </c>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
       <c r="L172" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.3">
@@ -6554,22 +6992,22 @@
         <v>2505</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F173" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F173" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G173" s="28"/>
       <c r="H173" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="I173" s="54"/>
-      <c r="J173" s="54"/>
+        <v>426</v>
+      </c>
+      <c r="I173" s="51"/>
+      <c r="J173" s="51"/>
       <c r="L173" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.3">
@@ -6580,22 +7018,22 @@
         <v>260</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F174" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F174" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G174" s="28"/>
       <c r="H174" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
+        <v>427</v>
+      </c>
+      <c r="I174" s="51"/>
+      <c r="J174" s="51"/>
       <c r="L174" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.3">
@@ -6606,22 +7044,22 @@
         <v>985</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F175" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F175" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G175" s="28"/>
       <c r="H175" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
+        <v>428</v>
+      </c>
+      <c r="I175" s="51"/>
+      <c r="J175" s="51"/>
       <c r="L175" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.3">
@@ -6632,22 +7070,22 @@
         <v>2527</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F176" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F176" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G176" s="28"/>
       <c r="H176" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
+        <v>429</v>
+      </c>
+      <c r="I176" s="51"/>
+      <c r="J176" s="51"/>
       <c r="L176" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.3">
@@ -6658,22 +7096,22 @@
         <v>2348</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F177" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F177" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G177" s="28"/>
       <c r="H177" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="I177" s="54"/>
-      <c r="J177" s="54"/>
+        <v>430</v>
+      </c>
+      <c r="I177" s="51"/>
+      <c r="J177" s="51"/>
       <c r="L177" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.3">
@@ -6684,22 +7122,22 @@
         <v>1272</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E178" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F178" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E178" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F178" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G178" s="28"/>
       <c r="H178" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="I178" s="54"/>
-      <c r="J178" s="54"/>
+        <v>431</v>
+      </c>
+      <c r="I178" s="51"/>
+      <c r="J178" s="51"/>
       <c r="L178" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.3">
@@ -6710,22 +7148,22 @@
         <v>1375</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E179" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F179" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F179" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G179" s="28"/>
       <c r="H179" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
+        <v>432</v>
+      </c>
+      <c r="I179" s="51"/>
+      <c r="J179" s="51"/>
       <c r="L179" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.3">
@@ -6736,22 +7174,22 @@
         <v>1734</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F180" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F180" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G180" s="28"/>
       <c r="H180" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I180" s="54"/>
-      <c r="J180" s="54"/>
+        <v>433</v>
+      </c>
+      <c r="I180" s="51"/>
+      <c r="J180" s="51"/>
       <c r="L180" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.3">
@@ -6762,22 +7200,22 @@
         <v>2155</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E181" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F181" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E181" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F181" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G181" s="28"/>
       <c r="H181" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="I181" s="54"/>
-      <c r="J181" s="54"/>
+        <v>434</v>
+      </c>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
       <c r="L181" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.3">
@@ -6788,22 +7226,22 @@
         <v>1701</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F182" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F182" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G182" s="28"/>
       <c r="H182" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="I182" s="54"/>
-      <c r="J182" s="54"/>
+        <v>435</v>
+      </c>
+      <c r="I182" s="51"/>
+      <c r="J182" s="51"/>
       <c r="L182" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.3">
@@ -6814,22 +7252,22 @@
         <v>137</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F183" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F183" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G183" s="28"/>
       <c r="H183" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
+        <v>436</v>
+      </c>
+      <c r="I183" s="51"/>
+      <c r="J183" s="51"/>
       <c r="L183" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.3">
@@ -6840,22 +7278,22 @@
         <v>789</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F184" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F184" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G184" s="28"/>
       <c r="H184" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I184" s="54"/>
-      <c r="J184" s="54"/>
+        <v>437</v>
+      </c>
+      <c r="I184" s="51"/>
+      <c r="J184" s="51"/>
       <c r="L184" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.3">
@@ -6866,22 +7304,22 @@
         <v>1583</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F185" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F185" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G185" s="28"/>
       <c r="H185" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="I185" s="54"/>
-      <c r="J185" s="54"/>
+        <v>438</v>
+      </c>
+      <c r="I185" s="51"/>
+      <c r="J185" s="51"/>
       <c r="L185" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.3">
@@ -6892,22 +7330,22 @@
         <v>2683</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F186" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F186" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G186" s="28"/>
       <c r="H186" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
+        <v>439</v>
+      </c>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
       <c r="L186" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.3">
@@ -6918,22 +7356,22 @@
         <v>667</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F187" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F187" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G187" s="28"/>
       <c r="H187" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
+        <v>440</v>
+      </c>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
       <c r="L187" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.3">
@@ -6944,22 +7382,22 @@
         <v>2425</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F188" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F188" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G188" s="28"/>
       <c r="H188" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
+        <v>441</v>
+      </c>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
       <c r="L188" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.3">
@@ -6970,22 +7408,22 @@
         <v>2568</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F189" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F189" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G189" s="28"/>
       <c r="H189" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="I189" s="54"/>
-      <c r="J189" s="54"/>
+        <v>442</v>
+      </c>
+      <c r="I189" s="51"/>
+      <c r="J189" s="51"/>
       <c r="L189" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.3">
@@ -6996,22 +7434,22 @@
         <v>573</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>219</v>
+        <v>556</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F190" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F190" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G190" s="28"/>
       <c r="H190" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
+        <v>443</v>
+      </c>
+      <c r="I190" s="51"/>
+      <c r="J190" s="51"/>
       <c r="L190" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.3">
@@ -7022,22 +7460,22 @@
         <v>1535</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F191" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F191" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G191" s="28"/>
       <c r="H191" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="I191" s="54"/>
-      <c r="J191" s="54"/>
+        <v>444</v>
+      </c>
+      <c r="I191" s="51"/>
+      <c r="J191" s="51"/>
       <c r="L191" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.3">
@@ -7048,22 +7486,22 @@
         <v>3101</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F192" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F192" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G192" s="28"/>
       <c r="H192" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="I192" s="54"/>
-      <c r="J192" s="54"/>
+        <v>445</v>
+      </c>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
       <c r="L192" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.3">
@@ -7074,22 +7512,22 @@
         <v>453</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F193" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F193" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G193" s="28"/>
       <c r="H193" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
+        <v>446</v>
+      </c>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
       <c r="L193" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.3">
@@ -7100,22 +7538,22 @@
         <v>2672</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E194" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F194" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F194" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G194" s="28"/>
       <c r="H194" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I194" s="54"/>
-      <c r="J194" s="54"/>
+        <v>447</v>
+      </c>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
       <c r="L194" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.3">
@@ -7126,22 +7564,22 @@
         <v>2909</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E195" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F195" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E195" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F195" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G195" s="28"/>
       <c r="H195" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
+        <v>448</v>
+      </c>
+      <c r="I195" s="51"/>
+      <c r="J195" s="51"/>
       <c r="L195" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.3">
@@ -7152,22 +7590,22 @@
         <v>477</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F196" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F196" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G196" s="28"/>
       <c r="H196" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="I196" s="54"/>
-      <c r="J196" s="54"/>
+        <v>449</v>
+      </c>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
       <c r="L196" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.3">
@@ -7178,22 +7616,22 @@
         <v>2419</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F197" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F197" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G197" s="28"/>
       <c r="H197" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="I197" s="54"/>
-      <c r="J197" s="54"/>
+        <v>450</v>
+      </c>
+      <c r="I197" s="51"/>
+      <c r="J197" s="51"/>
       <c r="L197" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.3">
@@ -7204,22 +7642,22 @@
         <v>915</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E198" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F198" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E198" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F198" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G198" s="28"/>
       <c r="H198" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
+        <v>451</v>
+      </c>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
       <c r="L198" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.3">
@@ -7230,22 +7668,22 @@
         <v>1131</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F199" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F199" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G199" s="28"/>
       <c r="H199" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
+        <v>452</v>
+      </c>
+      <c r="I199" s="51"/>
+      <c r="J199" s="51"/>
       <c r="L199" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.3">
@@ -7256,22 +7694,22 @@
         <v>849</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E200" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F200" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E200" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F200" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G200" s="28"/>
       <c r="H200" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
+        <v>453</v>
+      </c>
+      <c r="I200" s="51"/>
+      <c r="J200" s="51"/>
       <c r="L200" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.3">
@@ -7282,22 +7720,22 @@
         <v>2012</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E201" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F201" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E201" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F201" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G201" s="28"/>
       <c r="H201" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I201" s="54"/>
-      <c r="J201" s="54"/>
+        <v>454</v>
+      </c>
+      <c r="I201" s="51"/>
+      <c r="J201" s="51"/>
       <c r="L201" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.3">
@@ -7308,22 +7746,22 @@
         <v>2961</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F202" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="F202" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G202" s="28"/>
       <c r="H202" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="I202" s="54"/>
-      <c r="J202" s="54"/>
+        <v>455</v>
+      </c>
+      <c r="I202" s="51"/>
+      <c r="J202" s="51"/>
       <c r="L202" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.3">
@@ -7334,22 +7772,22 @@
         <v>755</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F203" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F203" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G203" s="28"/>
       <c r="H203" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
+        <v>456</v>
+      </c>
+      <c r="I203" s="51"/>
+      <c r="J203" s="51"/>
       <c r="L203" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.3">
@@ -7360,22 +7798,22 @@
         <v>2028</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F204" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="F204" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G204" s="28"/>
       <c r="H204" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="I204" s="54"/>
-      <c r="J204" s="54"/>
+        <v>457</v>
+      </c>
+      <c r="I204" s="51"/>
+      <c r="J204" s="51"/>
       <c r="L204" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.3">
@@ -7386,22 +7824,22 @@
         <v>393</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F205" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F205" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G205" s="28"/>
       <c r="H205" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="I205" s="54"/>
-      <c r="J205" s="54"/>
+        <v>458</v>
+      </c>
+      <c r="I205" s="51"/>
+      <c r="J205" s="51"/>
       <c r="L205" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.3">
@@ -7412,22 +7850,22 @@
         <v>1599</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F206" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="F206" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G206" s="28"/>
       <c r="H206" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I206" s="54"/>
-      <c r="J206" s="54"/>
+        <v>459</v>
+      </c>
+      <c r="I206" s="51"/>
+      <c r="J206" s="51"/>
       <c r="L206" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.3">
@@ -7438,22 +7876,22 @@
         <v>1390</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F207" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F207" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G207" s="28"/>
       <c r="H207" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
+        <v>460</v>
+      </c>
+      <c r="I207" s="51"/>
+      <c r="J207" s="51"/>
       <c r="L207" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.3">
@@ -7464,22 +7902,22 @@
         <v>775</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F208" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F208" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G208" s="28"/>
       <c r="H208" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="I208" s="54"/>
-      <c r="J208" s="54"/>
+        <v>461</v>
+      </c>
+      <c r="I208" s="51"/>
+      <c r="J208" s="51"/>
       <c r="L208" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.3">
@@ -7490,22 +7928,22 @@
         <v>57</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E209" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F209" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E209" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F209" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G209" s="28"/>
       <c r="H209" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
+        <v>462</v>
+      </c>
+      <c r="I209" s="51"/>
+      <c r="J209" s="51"/>
       <c r="L209" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.3">
@@ -7516,22 +7954,22 @@
         <v>2874</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E210" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F210" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E210" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F210" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G210" s="28"/>
       <c r="H210" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="I210" s="54"/>
-      <c r="J210" s="54"/>
+        <v>463</v>
+      </c>
+      <c r="I210" s="51"/>
+      <c r="J210" s="51"/>
       <c r="L210" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.3">
@@ -7542,22 +7980,22 @@
         <v>1073</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F211" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F211" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G211" s="28"/>
       <c r="H211" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="I211" s="54"/>
-      <c r="J211" s="54"/>
+        <v>464</v>
+      </c>
+      <c r="I211" s="51"/>
+      <c r="J211" s="51"/>
       <c r="L211" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.3">
@@ -7568,22 +8006,22 @@
         <v>2217</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F212" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F212" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G212" s="28"/>
       <c r="H212" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="I212" s="54"/>
-      <c r="J212" s="54"/>
+        <v>465</v>
+      </c>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
       <c r="L212" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.3">
@@ -7594,22 +8032,22 @@
         <v>665</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E213" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F213" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F213" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G213" s="28"/>
       <c r="H213" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="I213" s="54"/>
-      <c r="J213" s="54"/>
+        <v>466</v>
+      </c>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
       <c r="L213" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.3">
@@ -7620,22 +8058,22 @@
         <v>2647</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F214" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="F214" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G214" s="28"/>
       <c r="H214" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="I214" s="54"/>
-      <c r="J214" s="54"/>
+        <v>467</v>
+      </c>
+      <c r="I214" s="51"/>
+      <c r="J214" s="51"/>
       <c r="L214" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.3">
@@ -7646,22 +8084,22 @@
         <v>1835</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F215" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F215" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G215" s="28"/>
       <c r="H215" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="I215" s="54"/>
-      <c r="J215" s="54"/>
+        <v>468</v>
+      </c>
+      <c r="I215" s="51"/>
+      <c r="J215" s="51"/>
       <c r="L215" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.3">
@@ -7672,22 +8110,22 @@
         <v>810</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F216" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F216" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G216" s="28"/>
       <c r="H216" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="I216" s="54"/>
-      <c r="J216" s="54"/>
+        <v>469</v>
+      </c>
+      <c r="I216" s="51"/>
+      <c r="J216" s="51"/>
       <c r="L216" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.3">
@@ -7698,27 +8136,27 @@
         <v>927</v>
       </c>
       <c r="D217" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E217" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E217" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F217" s="47" t="s">
+      <c r="F217" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G217" s="28"/>
       <c r="H217" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="I217" s="54"/>
-      <c r="J217" s="54"/>
+        <v>470</v>
+      </c>
+      <c r="I217" s="51"/>
+      <c r="J217" s="51"/>
       <c r="L217" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C218" s="57"/>
       <c r="D218" s="57"/>
@@ -7726,10 +8164,10 @@
       <c r="F218" s="57"/>
       <c r="G218" s="57"/>
       <c r="H218" s="57"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="54"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="51"/>
       <c r="L218" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.3">
@@ -7740,22 +8178,22 @@
         <v>401</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F219" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G219" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="F219" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G219" s="54"/>
       <c r="H219" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="I219" s="54"/>
-      <c r="J219" s="54"/>
+        <v>471</v>
+      </c>
+      <c r="I219" s="51"/>
+      <c r="J219" s="51"/>
       <c r="L219" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.3">
@@ -7766,22 +8204,22 @@
         <v>46</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F220" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G220" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F220" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G220" s="54"/>
       <c r="H220" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="I220" s="54"/>
-      <c r="J220" s="54"/>
+        <v>472</v>
+      </c>
+      <c r="I220" s="51"/>
+      <c r="J220" s="51"/>
       <c r="L220" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.3">
@@ -7792,22 +8230,22 @@
         <v>78</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="F221" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G221" s="59"/>
+        <v>253</v>
+      </c>
+      <c r="F221" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G221" s="54"/>
       <c r="H221" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="I221" s="54"/>
-      <c r="J221" s="54"/>
+        <v>473</v>
+      </c>
+      <c r="I221" s="51"/>
+      <c r="J221" s="51"/>
       <c r="L221" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.3">
@@ -7818,22 +8256,22 @@
         <v>39</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F222" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G222" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F222" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G222" s="54"/>
       <c r="H222" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I222" s="54"/>
-      <c r="J222" s="54"/>
+        <v>474</v>
+      </c>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
       <c r="L222" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.3">
@@ -7844,22 +8282,22 @@
         <v>77</v>
       </c>
       <c r="D223" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E223" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E223" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F223" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G223" s="59"/>
+      <c r="F223" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G223" s="54"/>
       <c r="H223" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="I223" s="54"/>
-      <c r="J223" s="54"/>
+        <v>475</v>
+      </c>
+      <c r="I223" s="51"/>
+      <c r="J223" s="51"/>
       <c r="L223" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.3">
@@ -7870,22 +8308,22 @@
         <v>1238</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F224" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G224" s="59"/>
+        <v>112</v>
+      </c>
+      <c r="F224" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G224" s="54"/>
       <c r="H224" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="I224" s="54"/>
-      <c r="J224" s="54"/>
+        <v>476</v>
+      </c>
+      <c r="I224" s="51"/>
+      <c r="J224" s="51"/>
       <c r="L224" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225" spans="2:12" x14ac:dyDescent="0.3">
@@ -7896,22 +8334,22 @@
         <v>216</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F225" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G225" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F225" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G225" s="54"/>
       <c r="H225" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="I225" s="54"/>
-      <c r="J225" s="54"/>
+        <v>477</v>
+      </c>
+      <c r="I225" s="51"/>
+      <c r="J225" s="51"/>
       <c r="L225" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.3">
@@ -7922,22 +8360,22 @@
         <v>2698</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F226" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G226" s="59"/>
+        <v>113</v>
+      </c>
+      <c r="F226" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G226" s="54"/>
       <c r="H226" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="I226" s="54"/>
-      <c r="J226" s="54"/>
+        <v>478</v>
+      </c>
+      <c r="I226" s="51"/>
+      <c r="J226" s="51"/>
       <c r="L226" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.3">
@@ -7948,22 +8386,22 @@
         <v>47</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F227" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G227" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F227" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G227" s="54"/>
       <c r="H227" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="I227" s="54"/>
-      <c r="J227" s="54"/>
+        <v>479</v>
+      </c>
+      <c r="I227" s="51"/>
+      <c r="J227" s="51"/>
       <c r="L227" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7974,22 +8412,22 @@
         <v>89</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F228" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G228" s="60"/>
+        <v>112</v>
+      </c>
+      <c r="F228" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G228" s="55"/>
       <c r="H228" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I228" s="54"/>
-      <c r="J228" s="54"/>
+        <v>480</v>
+      </c>
+      <c r="I228" s="51"/>
+      <c r="J228" s="51"/>
       <c r="L228" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="2:12" x14ac:dyDescent="0.3">
@@ -8000,22 +8438,22 @@
         <v>90</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="F229" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G229" s="59"/>
+        <v>253</v>
+      </c>
+      <c r="F229" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G229" s="54"/>
       <c r="H229" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I229" s="54"/>
-      <c r="J229" s="54"/>
+        <v>481</v>
+      </c>
+      <c r="I229" s="51"/>
+      <c r="J229" s="51"/>
       <c r="L229" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.3">
@@ -8026,22 +8464,22 @@
         <v>40</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F230" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G230" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F230" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G230" s="54"/>
       <c r="H230" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="I230" s="54"/>
-      <c r="J230" s="54"/>
+        <v>482</v>
+      </c>
+      <c r="I230" s="51"/>
+      <c r="J230" s="51"/>
       <c r="L230" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.3">
@@ -8052,22 +8490,22 @@
         <v>1718</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F231" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G231" s="59"/>
+        <v>252</v>
+      </c>
+      <c r="F231" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G231" s="54"/>
       <c r="H231" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="I231" s="54"/>
-      <c r="J231" s="54"/>
+        <v>483</v>
+      </c>
+      <c r="I231" s="51"/>
+      <c r="J231" s="51"/>
       <c r="L231" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.3">
@@ -8078,22 +8516,22 @@
         <v>254</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E232" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F232" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G232" s="59"/>
+        <v>107</v>
+      </c>
+      <c r="E232" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F232" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232" s="54"/>
       <c r="H232" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="I232" s="54"/>
-      <c r="J232" s="54"/>
+        <v>484</v>
+      </c>
+      <c r="I232" s="51"/>
+      <c r="J232" s="51"/>
       <c r="L232" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.3">
@@ -8104,22 +8542,22 @@
         <v>52</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E233" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F233" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E233" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F233" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G233" s="59"/>
+      <c r="G233" s="54"/>
       <c r="H233" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="I233" s="54"/>
-      <c r="J233" s="54"/>
+        <v>485</v>
+      </c>
+      <c r="I233" s="51"/>
+      <c r="J233" s="51"/>
       <c r="L233" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.3">
@@ -8130,22 +8568,22 @@
         <v>51</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F234" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F234" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G234" s="59"/>
+      <c r="G234" s="54"/>
       <c r="H234" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="I234" s="54"/>
-      <c r="J234" s="54"/>
+        <v>486</v>
+      </c>
+      <c r="I234" s="51"/>
+      <c r="J234" s="51"/>
       <c r="L234" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.3">
@@ -8156,22 +8594,22 @@
         <v>1240</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E235" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F235" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E235" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F235" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G235" s="59"/>
+      <c r="G235" s="54"/>
       <c r="H235" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="I235" s="54"/>
-      <c r="J235" s="54"/>
+        <v>487</v>
+      </c>
+      <c r="I235" s="51"/>
+      <c r="J235" s="51"/>
       <c r="L235" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.3">
@@ -8182,22 +8620,22 @@
         <v>679</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="F236" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F236" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G236" s="59"/>
+      <c r="G236" s="54"/>
       <c r="H236" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="I236" s="54"/>
-      <c r="J236" s="54"/>
+        <v>488</v>
+      </c>
+      <c r="I236" s="51"/>
+      <c r="J236" s="51"/>
       <c r="L236" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.3">
@@ -8208,786 +8646,1541 @@
         <v>1088</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F237" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F237" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G237" s="59"/>
-      <c r="H237" s="8" t="s">
+      <c r="G237" s="54"/>
+      <c r="H237" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="I237" s="51"/>
+      <c r="J237" s="51"/>
+      <c r="L237" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="C238" s="64"/>
+      <c r="D238" s="64"/>
+      <c r="E238" s="64"/>
+      <c r="F238" s="64"/>
+      <c r="G238" s="64"/>
+      <c r="H238" s="64"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B239" s="65">
+        <v>229</v>
+      </c>
+      <c r="C239" s="66">
+        <v>3162</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E239" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F239" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="67"/>
+      <c r="H239" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="I239" s="51"/>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B240" s="65">
+        <v>230</v>
+      </c>
+      <c r="C240" s="66">
+        <v>760</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E240" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F240" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="67"/>
+      <c r="H240" s="73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B241" s="65">
+        <v>231</v>
+      </c>
+      <c r="C241" s="66">
+        <v>3158</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E241" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F241" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G241" s="67"/>
+      <c r="H241" s="73" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B242" s="65">
+        <v>232</v>
+      </c>
+      <c r="C242" s="66">
+        <v>2956</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E242" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F242" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="67"/>
+      <c r="H242" s="73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B243" s="65">
+        <v>233</v>
+      </c>
+      <c r="C243" s="66">
+        <v>2913</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I237" s="54"/>
-      <c r="J237" s="54"/>
-      <c r="L237" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B238" s="29"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="22"/>
-      <c r="E238" s="30"/>
-      <c r="F238" s="31"/>
-    </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B239" s="29"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="22"/>
-      <c r="E239" s="30"/>
-      <c r="F239" s="31"/>
-    </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B240" s="32"/>
-      <c r="C240" s="21"/>
-      <c r="D240" s="22"/>
-      <c r="E240" s="23"/>
-      <c r="F240" s="31"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B241" s="29"/>
-      <c r="C241" s="21"/>
-      <c r="D241" s="22"/>
-      <c r="E241" s="23"/>
-      <c r="F241" s="31"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B242" s="29"/>
-      <c r="C242" s="21"/>
-      <c r="D242" s="22"/>
-      <c r="E242" s="23"/>
-      <c r="F242" s="31"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B243" s="29"/>
-      <c r="C243" s="21"/>
-      <c r="D243" s="22"/>
-      <c r="E243" s="30"/>
-      <c r="F243" s="31"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B244" s="29"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="22"/>
-      <c r="E244" s="23"/>
-      <c r="F244" s="31"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B245" s="29"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="22"/>
-      <c r="E245" s="30"/>
-      <c r="F245" s="31"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B246" s="25"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="22"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="31"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B247" s="25"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="22"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="31"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B248" s="25"/>
-      <c r="C248" s="21"/>
-      <c r="D248" s="22"/>
-      <c r="E248" s="30"/>
-      <c r="F248" s="31"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B249" s="25"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="22"/>
-      <c r="E249" s="23"/>
-      <c r="F249" s="31"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B250" s="25"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="22"/>
-      <c r="E250" s="23"/>
-      <c r="F250" s="31"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B251" s="25"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="22"/>
-      <c r="E251" s="23"/>
-      <c r="F251" s="31"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B252" s="25"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="22"/>
-      <c r="E252" s="30"/>
-      <c r="F252" s="31"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B253" s="25"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="22"/>
-      <c r="E253" s="23"/>
-      <c r="F253" s="31"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B254" s="25"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="22"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="31"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B255" s="25"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="22"/>
-      <c r="E255" s="23"/>
-      <c r="F255" s="31"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B256" s="25"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="30"/>
-      <c r="F256" s="31"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B257" s="25"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="22"/>
-      <c r="E257" s="30"/>
-      <c r="F257" s="31"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B258" s="25"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="22"/>
-      <c r="E258" s="30"/>
-      <c r="F258" s="31"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B259" s="25"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="22"/>
-      <c r="E259" s="30"/>
-      <c r="F259" s="31"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B260" s="25"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="22"/>
-      <c r="E260" s="23"/>
-      <c r="F260" s="31"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B261" s="25"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="30"/>
-      <c r="F261" s="31"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B262" s="25"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="22"/>
-      <c r="E262" s="23"/>
-      <c r="F262" s="31"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B263" s="25"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="22"/>
-      <c r="E263" s="30"/>
-      <c r="F263" s="31"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B264" s="25"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="22"/>
-      <c r="E264" s="30"/>
-      <c r="F264" s="31"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B265" s="25"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="22"/>
-      <c r="E265" s="30"/>
-      <c r="F265" s="31"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B266" s="25"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="22"/>
-      <c r="E266" s="23"/>
-      <c r="F266" s="31"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B267" s="25"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="30"/>
-      <c r="F267" s="31"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B268" s="25"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="22"/>
-      <c r="E268" s="23"/>
-      <c r="F268" s="31"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B269" s="25"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="30"/>
-      <c r="F269" s="31"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B270" s="25"/>
-      <c r="C270" s="21"/>
-      <c r="D270" s="22"/>
-      <c r="E270" s="30"/>
-      <c r="F270" s="31"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B271" s="25"/>
-      <c r="C271" s="21"/>
-      <c r="D271" s="22"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="31"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B272" s="25"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="22"/>
-      <c r="E272" s="23"/>
-      <c r="F272" s="31"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B273" s="25"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="23"/>
-      <c r="F273" s="31"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B274" s="25"/>
-      <c r="C274" s="21"/>
-      <c r="D274" s="22"/>
-      <c r="E274" s="30"/>
-      <c r="F274" s="31"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B275" s="25"/>
-      <c r="C275" s="21"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="30"/>
-      <c r="F275" s="31"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B276" s="25"/>
-      <c r="C276" s="21"/>
-      <c r="D276" s="22"/>
-      <c r="E276" s="23"/>
-      <c r="F276" s="31"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B277" s="25"/>
-      <c r="C277" s="21"/>
-      <c r="D277" s="22"/>
-      <c r="E277" s="30"/>
-      <c r="F277" s="31"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B278" s="25"/>
-      <c r="C278" s="21"/>
-      <c r="D278" s="22"/>
-      <c r="E278" s="30"/>
-      <c r="F278" s="31"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B279" s="25"/>
-      <c r="C279" s="21"/>
-      <c r="D279" s="22"/>
-      <c r="E279" s="30"/>
-      <c r="F279" s="31"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B280" s="25"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="22"/>
-      <c r="E280" s="23"/>
-      <c r="F280" s="31"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B281" s="25"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="22"/>
-      <c r="E281" s="23"/>
-      <c r="F281" s="31"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B282" s="25"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="22"/>
-      <c r="E282" s="30"/>
-      <c r="F282" s="31"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B283" s="25"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="22"/>
-      <c r="E283" s="23"/>
-      <c r="F283" s="31"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B284" s="25"/>
-      <c r="C284" s="21"/>
-      <c r="D284" s="22"/>
-      <c r="E284" s="30"/>
-      <c r="F284" s="31"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B285" s="25"/>
-      <c r="C285" s="21"/>
-      <c r="D285" s="22"/>
-      <c r="E285" s="30"/>
-      <c r="F285" s="31"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B286" s="25"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="22"/>
-      <c r="E286" s="30"/>
-      <c r="F286" s="31"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B287" s="25"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="22"/>
-      <c r="E287" s="23"/>
-      <c r="F287" s="31"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B288" s="25"/>
-      <c r="C288" s="21"/>
-      <c r="D288" s="22"/>
-      <c r="E288" s="30"/>
-      <c r="F288" s="31"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B289" s="25"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="22"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="31"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B290" s="25"/>
-      <c r="C290" s="21"/>
-      <c r="D290" s="22"/>
-      <c r="E290" s="30"/>
-      <c r="F290" s="31"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B291" s="25"/>
-      <c r="C291" s="21"/>
-      <c r="D291" s="22"/>
-      <c r="E291" s="23"/>
-      <c r="F291" s="33"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B292" s="25"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="22"/>
-      <c r="E292" s="23"/>
-      <c r="F292" s="33"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B293" s="25"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="22"/>
-      <c r="E293" s="23"/>
-      <c r="F293" s="33"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B294" s="25"/>
-      <c r="C294" s="21"/>
-      <c r="D294" s="22"/>
-      <c r="E294" s="23"/>
-      <c r="F294" s="33"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B295" s="25"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="22"/>
-      <c r="E295" s="23"/>
-      <c r="F295" s="33"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B296" s="25"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="22"/>
-      <c r="E296" s="23"/>
-      <c r="F296" s="33"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B297" s="25"/>
-      <c r="C297" s="21"/>
-      <c r="D297" s="22"/>
-      <c r="E297" s="30"/>
-      <c r="F297" s="33"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B298" s="25"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="22"/>
-      <c r="E298" s="23"/>
-      <c r="F298" s="33"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B299" s="25"/>
-      <c r="C299" s="21"/>
-      <c r="D299" s="22"/>
-      <c r="E299" s="23"/>
-      <c r="F299" s="33"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B300" s="25"/>
-      <c r="C300" s="21"/>
-      <c r="D300" s="22"/>
-      <c r="E300" s="23"/>
-      <c r="F300" s="33"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B301" s="25"/>
-      <c r="C301" s="21"/>
-      <c r="D301" s="22"/>
-      <c r="E301" s="23"/>
-      <c r="F301" s="33"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B302" s="25"/>
-      <c r="C302" s="21"/>
-      <c r="D302" s="22"/>
-      <c r="E302" s="23"/>
-      <c r="F302" s="33"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B303" s="25"/>
-      <c r="C303" s="21"/>
-      <c r="D303" s="22"/>
-      <c r="E303" s="23"/>
-      <c r="F303" s="33"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B304" s="25"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="22"/>
-      <c r="E304" s="23"/>
-      <c r="F304" s="33"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B305" s="25"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="22"/>
-      <c r="E305" s="23"/>
-      <c r="F305" s="33"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B306" s="25"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="22"/>
-      <c r="E306" s="23"/>
-      <c r="F306" s="33"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B307" s="25"/>
-      <c r="C307" s="21"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="30"/>
-      <c r="F307" s="33"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B308" s="25"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="22"/>
-      <c r="E308" s="30"/>
-      <c r="F308" s="33"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B309" s="25"/>
-      <c r="C309" s="21"/>
-      <c r="D309" s="22"/>
-      <c r="E309" s="23"/>
-      <c r="F309" s="33"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B310" s="25"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="22"/>
-      <c r="E310" s="30"/>
-      <c r="F310" s="33"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B311" s="25"/>
-      <c r="C311" s="21"/>
-      <c r="D311" s="22"/>
-      <c r="E311" s="23"/>
-      <c r="F311" s="33"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F243" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="67"/>
+      <c r="H243" s="73" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B244" s="65">
+        <v>234</v>
+      </c>
+      <c r="C244" s="66">
+        <v>2215</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E244" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F244" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="67"/>
+      <c r="H244" s="73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B245" s="65">
+        <v>235</v>
+      </c>
+      <c r="C245" s="66">
+        <v>2670</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E245" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F245" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" s="67"/>
+      <c r="H245" s="73" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B246" s="65">
+        <v>236</v>
+      </c>
+      <c r="C246" s="66">
+        <v>1207</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E246" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F246" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="67"/>
+      <c r="H246" s="73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B247" s="65">
+        <v>237</v>
+      </c>
+      <c r="C247" s="66">
+        <v>961</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E247" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F247" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G247" s="67"/>
+      <c r="H247" s="73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B248" s="65">
+        <v>238</v>
+      </c>
+      <c r="C248" s="66">
+        <v>2032</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E248" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F248" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" s="67"/>
+      <c r="H248" s="73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B249" s="65">
+        <v>239</v>
+      </c>
+      <c r="C249" s="66">
+        <v>575</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E249" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F249" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" s="67"/>
+      <c r="H249" s="73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B250" s="65">
+        <v>240</v>
+      </c>
+      <c r="C250" s="66">
+        <v>1399</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E250" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="F250" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G250" s="67"/>
+      <c r="H250" s="73" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B251" s="65">
+        <v>241</v>
+      </c>
+      <c r="C251" s="66">
+        <v>2395</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E251" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F251" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G251" s="67"/>
+      <c r="H251" s="73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B252" s="65">
+        <v>242</v>
+      </c>
+      <c r="C252" s="66">
+        <v>448</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E252" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F252" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="67"/>
+      <c r="H252" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B253" s="65">
+        <v>243</v>
+      </c>
+      <c r="C253" s="66">
+        <v>1426</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E253" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F253" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" s="67"/>
+      <c r="H253" s="73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B254" s="65">
+        <v>244</v>
+      </c>
+      <c r="C254" s="66">
+        <v>2549</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E254" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="F254" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" s="67"/>
+      <c r="H254" s="73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B255" s="65">
+        <v>245</v>
+      </c>
+      <c r="C255" s="66">
+        <v>2869</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E255" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F255" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G255" s="68"/>
+      <c r="H255" s="74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B256" s="65">
+        <v>246</v>
+      </c>
+      <c r="C256" s="66">
+        <v>2815</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E256" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F256" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" s="67"/>
+      <c r="H256" s="75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B257" s="65">
+        <v>247</v>
+      </c>
+      <c r="C257" s="66">
+        <v>697</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E257" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F257" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="67"/>
+      <c r="H257" s="75" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B258" s="65">
+        <v>248</v>
+      </c>
+      <c r="C258" s="66">
+        <v>1640</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E258" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F258" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="67"/>
+      <c r="H258" s="75" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B259" s="65">
+        <v>249</v>
+      </c>
+      <c r="C259" s="66">
+        <v>1</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E259" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F259" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="67"/>
+      <c r="H259" s="75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B260" s="65">
+        <v>250</v>
+      </c>
+      <c r="C260" s="66">
+        <v>2729</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E260" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="F260" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" s="67"/>
+      <c r="H260" s="75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B261" s="65">
+        <v>251</v>
+      </c>
+      <c r="C261" s="66">
+        <v>2682</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E261" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="F261" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="67"/>
+      <c r="H261" s="75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B262" s="65">
+        <v>252</v>
+      </c>
+      <c r="C262" s="66">
+        <v>1282</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E262" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F262" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G262" s="67"/>
+      <c r="H262" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B263" s="65">
+        <v>253</v>
+      </c>
+      <c r="C263" s="66">
+        <v>2610</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E263" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F263" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G263" s="67"/>
+      <c r="H263" s="75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B264" s="65">
+        <v>254</v>
+      </c>
+      <c r="C264" s="66">
+        <v>2657</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E264" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F264" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G264" s="67"/>
+      <c r="H264" s="75" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B265" s="65">
+        <v>255</v>
+      </c>
+      <c r="C265" s="66">
+        <v>1817</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E265" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F265" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G265" s="67"/>
+      <c r="H265" s="75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B266" s="65">
+        <v>256</v>
+      </c>
+      <c r="C266" s="66">
+        <v>2442</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E266" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F266" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G266" s="67"/>
+      <c r="H266" s="75" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B267" s="65">
+        <v>257</v>
+      </c>
+      <c r="C267" s="66">
+        <v>442</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E267" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F267" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G267" s="67"/>
+      <c r="H267" s="75" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B268" s="65">
+        <v>258</v>
+      </c>
+      <c r="C268" s="66">
+        <v>1743</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E268" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F268" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G268" s="67"/>
+      <c r="H268" s="75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B269" s="65">
+        <v>259</v>
+      </c>
+      <c r="C269" s="66">
+        <v>3159</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E269" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F269" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G269" s="67"/>
+      <c r="H269" s="75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B270" s="65">
+        <v>260</v>
+      </c>
+      <c r="C270" s="66">
+        <v>2898</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E270" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F270" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G270" s="67"/>
+      <c r="H270" s="75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B271" s="65">
+        <v>261</v>
+      </c>
+      <c r="C271" s="66">
+        <v>2964</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E271" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F271" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G271" s="67"/>
+      <c r="H271" s="75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B272" s="65">
+        <v>262</v>
+      </c>
+      <c r="C272" s="66">
+        <v>2295</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E272" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F272" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G272" s="67"/>
+      <c r="H272" s="75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B273" s="65">
+        <v>263</v>
+      </c>
+      <c r="C273" s="66">
+        <v>454</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E273" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F273" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G273" s="67"/>
+      <c r="H273" s="75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B274" s="65">
+        <v>264</v>
+      </c>
+      <c r="C274" s="66">
+        <v>2201</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E274" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F274" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G274" s="67"/>
+      <c r="H274" s="75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B275" s="65">
+        <v>265</v>
+      </c>
+      <c r="C275" s="66">
+        <v>447</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E275" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F275" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" s="67"/>
+      <c r="H275" s="75" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B276" s="65">
+        <v>266</v>
+      </c>
+      <c r="C276" s="66">
+        <v>554</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E276" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F276" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G276" s="67"/>
+      <c r="H276" s="75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B277" s="65">
+        <v>267</v>
+      </c>
+      <c r="C277" s="66">
+        <v>2365</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E277" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F277" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G277" s="67"/>
+      <c r="H277" s="75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B278" s="65">
+        <v>268</v>
+      </c>
+      <c r="C278" s="66">
+        <v>822</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E278" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F278" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G278" s="67"/>
+      <c r="H278" s="75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B279" s="65">
+        <v>269</v>
+      </c>
+      <c r="C279" s="66">
+        <v>1015</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E279" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="F279" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G279" s="67"/>
+      <c r="H279" s="75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B280" s="65">
+        <v>270</v>
+      </c>
+      <c r="C280" s="66">
+        <v>1906</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E280" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F280" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G280" s="67"/>
+      <c r="H280" s="75" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B281" s="65">
+        <v>271</v>
+      </c>
+      <c r="C281" s="66">
+        <v>2364</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E281" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F281" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G281" s="67"/>
+      <c r="H281" s="75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B282" s="65">
+        <v>272</v>
+      </c>
+      <c r="C282" s="66">
+        <v>3160</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E282" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F282" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G282" s="67"/>
+      <c r="H282" s="75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B283" s="65">
+        <v>273</v>
+      </c>
+      <c r="C283" s="66">
+        <v>874</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E283" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F283" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G283" s="67"/>
+      <c r="H283" s="75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B284" s="65">
+        <v>274</v>
+      </c>
+      <c r="C284" s="66">
+        <v>957</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E284" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="F284" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G284" s="67"/>
+      <c r="H284" s="75" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B285" s="65">
+        <v>275</v>
+      </c>
+      <c r="C285" s="66">
+        <v>356</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E285" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F285" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G285" s="67"/>
+      <c r="H285" s="75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B286" s="65">
+        <v>276</v>
+      </c>
+      <c r="C286" s="66">
+        <v>2857</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E286" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F286" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G286" s="67"/>
+      <c r="H286" s="75" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B287" s="65">
+        <v>277</v>
+      </c>
+      <c r="C287" s="66">
+        <v>2718</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E287" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F287" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G287" s="67"/>
+      <c r="H287" s="75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B288" s="65">
+        <v>278</v>
+      </c>
+      <c r="C288" s="66">
+        <v>1711</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E288" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F288" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G288" s="67"/>
+      <c r="H288" s="75" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B289" s="65">
+        <v>279</v>
+      </c>
+      <c r="C289" s="66">
+        <v>2808</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E289" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F289" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G289" s="67"/>
+      <c r="H289" s="75" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B290" s="65">
+        <v>280</v>
+      </c>
+      <c r="C290" s="66">
+        <v>3164</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E290" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F290" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G290" s="67"/>
+      <c r="H290" s="75" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B291" s="65">
+        <v>281</v>
+      </c>
+      <c r="C291" s="66">
+        <v>982</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E291" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F291" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G291" s="67"/>
+      <c r="H291" s="75" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B292" s="65">
+        <v>282</v>
+      </c>
+      <c r="C292" s="66">
+        <v>41</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E292" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F292" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G292" s="67"/>
+      <c r="H292" s="75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B293" s="65">
+        <v>283</v>
+      </c>
+      <c r="C293" s="66">
+        <v>1224</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E293" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F293" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G293" s="67"/>
+      <c r="H293" s="75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B294" s="65">
+        <v>284</v>
+      </c>
+      <c r="C294" s="69">
+        <v>1001</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E294" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F294" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G294" s="67"/>
+      <c r="H294" s="75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B295" s="19"/>
+      <c r="F295" s="58"/>
+      <c r="H295" s="59"/>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B296" s="19"/>
+      <c r="F296" s="58"/>
+      <c r="H296" s="59"/>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B297" s="19"/>
+      <c r="F297" s="58"/>
+      <c r="H297" s="59"/>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B298" s="19"/>
+      <c r="F298" s="58"/>
+      <c r="H298" s="59"/>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B299" s="19"/>
+      <c r="F299" s="58"/>
+      <c r="H299" s="59"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B300" s="19"/>
+      <c r="F300" s="58"/>
+      <c r="H300" s="59"/>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B301" s="19"/>
+      <c r="F301" s="58"/>
+      <c r="H301" s="59"/>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B302" s="19"/>
+      <c r="F302" s="58"/>
+      <c r="H302" s="59"/>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B303" s="19"/>
+      <c r="F303" s="58"/>
+      <c r="H303" s="59"/>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B304" s="19"/>
+      <c r="F304" s="58"/>
+      <c r="H304" s="59"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B305" s="19"/>
+      <c r="F305" s="58"/>
+      <c r="H305" s="59"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B306" s="19"/>
+      <c r="F306" s="58"/>
+      <c r="H306" s="59"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B307" s="19"/>
+      <c r="F307" s="58"/>
+      <c r="H307" s="59"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B308" s="19"/>
+      <c r="F308" s="58"/>
+      <c r="H308" s="59"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B309" s="19"/>
+      <c r="F309" s="58"/>
+      <c r="H309" s="59"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B310" s="19"/>
+      <c r="F310" s="58"/>
+      <c r="H310" s="59"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B311" s="60"/>
+      <c r="F311" s="61"/>
+      <c r="H311" s="62"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" s="25"/>
       <c r="C312" s="21"/>
       <c r="D312" s="22"/>
       <c r="E312" s="23"/>
-      <c r="F312" s="33"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F312" s="30"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" s="25"/>
       <c r="C313" s="21"/>
       <c r="D313" s="22"/>
       <c r="E313" s="23"/>
-      <c r="F313" s="33"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F313" s="30"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" s="25"/>
       <c r="C314" s="21"/>
       <c r="D314" s="22"/>
       <c r="E314" s="23"/>
-      <c r="F314" s="33"/>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F314" s="30"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" s="25"/>
       <c r="C315" s="21"/>
       <c r="D315" s="22"/>
       <c r="E315" s="23"/>
-      <c r="F315" s="33"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F315" s="30"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" s="25"/>
       <c r="C316" s="21"/>
       <c r="D316" s="22"/>
       <c r="E316" s="23"/>
-      <c r="F316" s="33"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F316" s="30"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" s="25"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
       <c r="E317" s="23"/>
-      <c r="F317" s="33"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F317" s="30"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" s="25"/>
       <c r="C318" s="21"/>
       <c r="D318" s="22"/>
       <c r="E318" s="23"/>
-      <c r="F318" s="33"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F318" s="30"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" s="25"/>
       <c r="C319" s="21"/>
       <c r="D319" s="22"/>
       <c r="E319" s="23"/>
-      <c r="F319" s="33"/>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F319" s="30"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" s="25"/>
       <c r="C320" s="21"/>
       <c r="D320" s="22"/>
       <c r="E320" s="23"/>
-      <c r="F320" s="33"/>
+      <c r="F320" s="30"/>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="25"/>
       <c r="C321" s="21"/>
       <c r="D321" s="22"/>
       <c r="E321" s="23"/>
-      <c r="F321" s="33"/>
+      <c r="F321" s="30"/>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="25"/>
       <c r="C322" s="21"/>
       <c r="D322" s="22"/>
       <c r="E322" s="23"/>
-      <c r="F322" s="33"/>
+      <c r="F322" s="30"/>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="25"/>
       <c r="C323" s="21"/>
       <c r="D323" s="22"/>
       <c r="E323" s="23"/>
-      <c r="F323" s="33"/>
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="25"/>
       <c r="C324" s="21"/>
       <c r="D324" s="22"/>
       <c r="E324" s="23"/>
-      <c r="F324" s="33"/>
+      <c r="F324" s="30"/>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="25"/>
       <c r="C325" s="21"/>
       <c r="D325" s="22"/>
       <c r="E325" s="23"/>
-      <c r="F325" s="33"/>
+      <c r="F325" s="30"/>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="25"/>
       <c r="C326" s="21"/>
       <c r="D326" s="22"/>
-      <c r="E326" s="30"/>
-      <c r="F326" s="33"/>
+      <c r="E326" s="29"/>
+      <c r="F326" s="30"/>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="25"/>
       <c r="C327" s="21"/>
       <c r="D327" s="22"/>
-      <c r="E327" s="30"/>
-      <c r="F327" s="33"/>
+      <c r="E327" s="29"/>
+      <c r="F327" s="30"/>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="25"/>
       <c r="C328" s="21"/>
       <c r="D328" s="22"/>
       <c r="E328" s="23"/>
-      <c r="F328" s="33"/>
+      <c r="F328" s="30"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="25"/>
       <c r="C329" s="21"/>
       <c r="D329" s="22"/>
       <c r="E329" s="23"/>
-      <c r="F329" s="33"/>
+      <c r="F329" s="30"/>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="25"/>
       <c r="C330" s="21"/>
       <c r="D330" s="22"/>
       <c r="E330" s="23"/>
-      <c r="F330" s="33"/>
+      <c r="F330" s="30"/>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="25"/>
       <c r="C331" s="21"/>
       <c r="D331" s="22"/>
-      <c r="E331" s="30"/>
-      <c r="F331" s="33"/>
+      <c r="E331" s="29"/>
+      <c r="F331" s="30"/>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="25"/>
       <c r="C332" s="21"/>
       <c r="D332" s="22"/>
       <c r="E332" s="23"/>
-      <c r="F332" s="33"/>
+      <c r="F332" s="30"/>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="25"/>
       <c r="C333" s="21"/>
       <c r="D333" s="22"/>
-      <c r="E333" s="30"/>
-      <c r="F333" s="33"/>
+      <c r="E333" s="29"/>
+      <c r="F333" s="30"/>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="25"/>
       <c r="C334" s="21"/>
       <c r="D334" s="22"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="33"/>
+      <c r="E334" s="29"/>
+      <c r="F334" s="30"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="25"/>
       <c r="C335" s="21"/>
       <c r="D335" s="22"/>
       <c r="E335" s="23"/>
-      <c r="F335" s="33"/>
+      <c r="F335" s="30"/>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="25"/>
       <c r="C336" s="21"/>
       <c r="D336" s="22"/>
       <c r="E336" s="23"/>
-      <c r="F336" s="33"/>
+      <c r="F336" s="30"/>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="25"/>
       <c r="C337" s="21"/>
       <c r="D337" s="22"/>
       <c r="E337" s="23"/>
-      <c r="F337" s="33"/>
+      <c r="F337" s="30"/>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="25"/>
       <c r="C338" s="21"/>
       <c r="D338" s="22"/>
       <c r="E338" s="23"/>
-      <c r="F338" s="33"/>
+      <c r="F338" s="30"/>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="25"/>
       <c r="C339" s="21"/>
       <c r="D339" s="22"/>
       <c r="E339" s="23"/>
-      <c r="F339" s="33"/>
+      <c r="F339" s="30"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="25"/>
       <c r="C340" s="21"/>
       <c r="D340" s="22"/>
       <c r="E340" s="23"/>
-      <c r="F340" s="33"/>
+      <c r="F340" s="30"/>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="25"/>
       <c r="C341" s="21"/>
       <c r="D341" s="22"/>
       <c r="E341" s="23"/>
-      <c r="F341" s="33"/>
+      <c r="F341" s="30"/>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="25"/>
       <c r="C342" s="21"/>
       <c r="D342" s="22"/>
-      <c r="E342" s="30"/>
-      <c r="F342" s="33"/>
+      <c r="E342" s="29"/>
+      <c r="F342" s="30"/>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="25"/>
       <c r="C343" s="21"/>
       <c r="D343" s="22"/>
-      <c r="E343" s="30"/>
-      <c r="F343" s="33"/>
+      <c r="E343" s="29"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="25"/>
       <c r="C344" s="21"/>
       <c r="D344" s="22"/>
       <c r="E344" s="23"/>
-      <c r="F344" s="33"/>
+      <c r="F344" s="30"/>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="25"/>
       <c r="C345" s="21"/>
       <c r="D345" s="22"/>
       <c r="E345" s="23"/>
-      <c r="F345" s="33"/>
+      <c r="F345" s="30"/>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="25"/>
       <c r="C346" s="21"/>
       <c r="D346" s="22"/>
-      <c r="E346" s="30"/>
-      <c r="F346" s="33"/>
+      <c r="E346" s="29"/>
+      <c r="F346" s="30"/>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="25"/>
@@ -9018,88 +10211,88 @@
       <c r="F350" s="24"/>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B351" s="34"/>
+      <c r="B351" s="31"/>
       <c r="C351" s="21"/>
       <c r="D351" s="22"/>
       <c r="E351" s="23"/>
       <c r="F351" s="24"/>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B352" s="35"/>
+      <c r="B352" s="32"/>
       <c r="C352" s="21"/>
       <c r="D352" s="22"/>
       <c r="E352" s="23"/>
       <c r="F352" s="24"/>
     </row>
     <row r="353" spans="2:6" ht="17.75" x14ac:dyDescent="0.3">
-      <c r="B353" s="36"/>
-      <c r="C353" s="37"/>
-      <c r="D353" s="37"/>
-      <c r="E353" s="37"/>
-      <c r="F353" s="37"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="34"/>
+      <c r="D353" s="34"/>
+      <c r="E353" s="34"/>
+      <c r="F353" s="34"/>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B354" s="36"/>
-      <c r="C354" s="38"/>
-      <c r="D354" s="39"/>
-      <c r="E354" s="40"/>
-      <c r="F354" s="41"/>
+      <c r="B354" s="33"/>
+      <c r="C354" s="35"/>
+      <c r="D354" s="36"/>
+      <c r="E354" s="37"/>
+      <c r="F354" s="38"/>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B355" s="35"/>
-      <c r="C355" s="38"/>
-      <c r="D355" s="39"/>
-      <c r="E355" s="30"/>
-      <c r="F355" s="42"/>
+      <c r="B355" s="32"/>
+      <c r="C355" s="35"/>
+      <c r="D355" s="36"/>
+      <c r="E355" s="29"/>
+      <c r="F355" s="39"/>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B356" s="35"/>
-      <c r="C356" s="38"/>
-      <c r="D356" s="39"/>
-      <c r="E356" s="40"/>
-      <c r="F356" s="42"/>
+      <c r="B356" s="32"/>
+      <c r="C356" s="35"/>
+      <c r="D356" s="36"/>
+      <c r="E356" s="37"/>
+      <c r="F356" s="39"/>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B357" s="36"/>
-      <c r="C357" s="38"/>
-      <c r="D357" s="39"/>
-      <c r="E357" s="40"/>
-      <c r="F357" s="42"/>
+      <c r="B357" s="33"/>
+      <c r="C357" s="35"/>
+      <c r="D357" s="36"/>
+      <c r="E357" s="37"/>
+      <c r="F357" s="39"/>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B358" s="35"/>
-      <c r="C358" s="38"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="40"/>
-      <c r="F358" s="42"/>
+      <c r="B358" s="32"/>
+      <c r="C358" s="35"/>
+      <c r="D358" s="36"/>
+      <c r="E358" s="37"/>
+      <c r="F358" s="39"/>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B359" s="35"/>
-      <c r="C359" s="38"/>
-      <c r="D359" s="39"/>
-      <c r="E359" s="30"/>
-      <c r="F359" s="42"/>
+      <c r="B359" s="32"/>
+      <c r="C359" s="35"/>
+      <c r="D359" s="36"/>
+      <c r="E359" s="29"/>
+      <c r="F359" s="39"/>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B360" s="35"/>
-      <c r="C360" s="38"/>
-      <c r="D360" s="39"/>
-      <c r="E360" s="30"/>
-      <c r="F360" s="43"/>
+      <c r="B360" s="32"/>
+      <c r="C360" s="35"/>
+      <c r="D360" s="36"/>
+      <c r="E360" s="29"/>
+      <c r="F360" s="40"/>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B361" s="35"/>
-      <c r="C361" s="38"/>
-      <c r="D361" s="39"/>
-      <c r="E361" s="30"/>
-      <c r="F361" s="43"/>
+      <c r="B361" s="32"/>
+      <c r="C361" s="35"/>
+      <c r="D361" s="36"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="40"/>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B362" s="35"/>
-      <c r="C362" s="38"/>
-      <c r="D362" s="39"/>
-      <c r="E362" s="40"/>
-      <c r="F362" s="43"/>
+      <c r="B362" s="32"/>
+      <c r="C362" s="35"/>
+      <c r="D362" s="36"/>
+      <c r="E362" s="37"/>
+      <c r="F362" s="40"/>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="19"/>
@@ -9446,7 +10639,7 @@
       <c r="I470" s="25"/>
     </row>
     <row r="471" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B471" s="35"/>
+      <c r="B471" s="32"/>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
       <c r="E471" s="25"/>
@@ -9455,7 +10648,7 @@
       <c r="I471" s="25"/>
     </row>
     <row r="472" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B472" s="35"/>
+      <c r="B472" s="32"/>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
       <c r="E472" s="25"/>
@@ -9464,7 +10657,7 @@
       <c r="I472" s="25"/>
     </row>
     <row r="473" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B473" s="35"/>
+      <c r="B473" s="32"/>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
       <c r="E473" s="25"/>
@@ -9473,7 +10666,7 @@
       <c r="I473" s="25"/>
     </row>
     <row r="474" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B474" s="35"/>
+      <c r="B474" s="32"/>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="25"/>
@@ -9482,7 +10675,7 @@
       <c r="I474" s="25"/>
     </row>
     <row r="475" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B475" s="35"/>
+      <c r="B475" s="32"/>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="25"/>
@@ -9491,34 +10684,34 @@
       <c r="I475" s="25"/>
     </row>
     <row r="476" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B476" s="35"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="34"/>
-      <c r="E476" s="34"/>
-      <c r="F476" s="49"/>
+      <c r="B476" s="32"/>
+      <c r="C476" s="31"/>
+      <c r="D476" s="31"/>
+      <c r="E476" s="31"/>
+      <c r="F476" s="46"/>
       <c r="G476" s="25"/>
       <c r="I476" s="25"/>
     </row>
     <row r="477" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B477" s="50"/>
-      <c r="C477" s="50"/>
-      <c r="D477" s="50"/>
-      <c r="E477" s="50"/>
-      <c r="F477" s="51"/>
+      <c r="B477" s="47"/>
+      <c r="C477" s="47"/>
+      <c r="D477" s="47"/>
+      <c r="E477" s="47"/>
+      <c r="F477" s="48"/>
       <c r="G477" s="25"/>
       <c r="I477" s="25"/>
     </row>
     <row r="478" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B478" s="34"/>
-      <c r="C478" s="34"/>
-      <c r="D478" s="34"/>
-      <c r="E478" s="34"/>
-      <c r="F478" s="49"/>
+      <c r="B478" s="31"/>
+      <c r="C478" s="31"/>
+      <c r="D478" s="31"/>
+      <c r="E478" s="31"/>
+      <c r="F478" s="46"/>
       <c r="G478" s="25"/>
       <c r="I478" s="25"/>
     </row>
     <row r="479" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B479" s="35"/>
+      <c r="B479" s="32"/>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="25"/>
@@ -9527,7 +10720,7 @@
       <c r="I479" s="25"/>
     </row>
     <row r="480" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B480" s="36"/>
+      <c r="B480" s="33"/>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="25"/>
@@ -9536,7 +10729,7 @@
       <c r="I480" s="25"/>
     </row>
     <row r="481" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B481" s="36"/>
+      <c r="B481" s="33"/>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="25"/>
@@ -9545,7 +10738,7 @@
       <c r="I481" s="25"/>
     </row>
     <row r="482" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B482" s="52"/>
+      <c r="B482" s="49"/>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
       <c r="E482" s="25"/>
@@ -9554,7 +10747,7 @@
       <c r="I482" s="25"/>
     </row>
     <row r="483" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B483" s="35"/>
+      <c r="B483" s="32"/>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="25"/>
@@ -10214,7 +11407,8 @@
       <c r="I574" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B238:H238"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B62:H62"/>
@@ -10456,8 +11650,66 @@
     <hyperlink ref="H6" r:id="rId230" xr:uid="{74BF8333-266B-40F7-BF39-309C2D94A712}"/>
     <hyperlink ref="H8" r:id="rId231" xr:uid="{6B3B5D43-4D2C-4E93-9376-25656A9680FB}"/>
     <hyperlink ref="H7" r:id="rId232" xr:uid="{9A06D013-ED28-45F3-8AD0-FAD915AE8765}"/>
+    <hyperlink ref="D239" r:id="rId233" tooltip="Find the Number of Good Pairs I" display="https://leetcode.com/problems/find-the-number-of-good-pairs-i" xr:uid="{C3A03796-801C-47CA-B0A7-8EA5A6FDD106}"/>
+    <hyperlink ref="D240" r:id="rId234" tooltip="Find Anagram Mappings" display="https://leetcode.com/problems/find-anagram-mappings" xr:uid="{F049B9DA-535C-48B0-B964-1AD4A4FDA9FD}"/>
+    <hyperlink ref="D241" r:id="rId235" tooltip="Find the XOR of Numbers Which Appear Twice" display="https://leetcode.com/problems/find-the-xor-of-numbers-which-appear-twice" xr:uid="{DE0E2EFC-6F96-440C-AEF2-1AFAE63DBB0A}"/>
+    <hyperlink ref="D242" r:id="rId236" tooltip="Find Common Elements Between Two Arrays" display="https://leetcode.com/problems/find-common-elements-between-two-arrays" xr:uid="{97F01845-C955-4BC6-B208-7FEE6E19DA10}"/>
+    <hyperlink ref="D243" r:id="rId237" tooltip="Subarrays Distinct Element Sum of Squares I" display="https://leetcode.com/problems/subarrays-distinct-element-sum-of-squares-i" xr:uid="{8B7DC0CD-2295-4FB1-B384-EC35A4A19B8E}"/>
+    <hyperlink ref="D244" r:id="rId238" tooltip="Find the Difference of Two Arrays" display="https://leetcode.com/problems/find-the-difference-of-two-arrays" xr:uid="{29DDAD12-8CA7-448C-BC9F-78C111D120F7}"/>
+    <hyperlink ref="D245" r:id="rId239" tooltip="Find the Distinct Difference Array" display="https://leetcode.com/problems/find-the-distinct-difference-array" xr:uid="{75518108-334F-4DBE-BF6C-4E485A1D3451}"/>
+    <hyperlink ref="D246" r:id="rId240" tooltip="Unique Number of Occurrences" display="https://leetcode.com/problems/unique-number-of-occurrences" xr:uid="{FCC13730-E1EF-4BCD-90E3-95E4C1A2393D}"/>
+    <hyperlink ref="D247" r:id="rId241" tooltip="N-Repeated Element in Size 2N Array" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{3C1BD975-E313-459D-9AD5-3A62AFAF9E1D}"/>
+    <hyperlink ref="D248" r:id="rId242" tooltip="Two Out of Three" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{0EA49D06-2E34-4BFC-AA49-04E4F3291077}"/>
+    <hyperlink ref="D249" r:id="rId243" tooltip="Distribute Candies" display="https://leetcode.com/problems/distribute-candies" xr:uid="{C6021A88-A4A3-4A4C-AD5D-F3061DD72831}"/>
+    <hyperlink ref="D250" r:id="rId244" tooltip="Count Largest Group" display="https://leetcode.com/problems/count-largest-group" xr:uid="{A440C572-4434-4AEC-BD6E-E536EE0D7F32}"/>
+    <hyperlink ref="D251" r:id="rId245" tooltip="Find Subarrays With Equal Sum" display="https://leetcode.com/problems/find-subarrays-with-equal-sum" xr:uid="{179C5224-748B-41D7-911A-96518710DE17}"/>
+    <hyperlink ref="D252" r:id="rId246" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{D2F4E150-FAD0-43F5-89AB-37CC58A3405F}"/>
+    <hyperlink ref="D253" r:id="rId247" tooltip="Counting Elements" display="https://leetcode.com/problems/counting-elements" xr:uid="{C5544B02-7821-4242-A7D7-1F99CB991619}"/>
+    <hyperlink ref="D254" r:id="rId248" tooltip="Count Distinct Numbers on Board" display="https://leetcode.com/problems/count-distinct-numbers-on-board" xr:uid="{DF4AE62D-6CFE-4368-8D73-F185F77256A7}"/>
+    <hyperlink ref="D255" r:id="rId249" tooltip="Minimum Operations to Collect Elements" display="https://leetcode.com/problems/minimum-operations-to-collect-elements" xr:uid="{A29F795C-2383-4327-87B2-3B6056CFC8B3}"/>
+    <hyperlink ref="D256" r:id="rId250" tooltip="Max Pair Sum in an Array" display="https://leetcode.com/problems/max-pair-sum-in-an-array" xr:uid="{7D291E23-BCBE-4DCA-BC49-59F6E8248BDB}"/>
+    <hyperlink ref="D257" r:id="rId251" tooltip="Degree of an Array" display="https://leetcode.com/problems/degree-of-an-array" xr:uid="{430C0E4E-0E7A-45BC-A89C-AD6B8E13D47A}"/>
+    <hyperlink ref="D258" r:id="rId252" tooltip="Check Array Formation Through Concatenation" display="https://leetcode.com/problems/check-array-formation-through-concatenation" xr:uid="{6677A380-6D09-40FE-A7CB-2FF5958BB1CE}"/>
+    <hyperlink ref="D259" r:id="rId253" tooltip="Two Sum" display="https://leetcode.com/problems/two-sum" xr:uid="{4A967DCD-B818-458B-997C-9B29568CC730}"/>
+    <hyperlink ref="D260" r:id="rId254" tooltip="Check if The Number is Fascinating" display="https://leetcode.com/problems/check-if-the-number-is-fascinating" xr:uid="{C582A3C1-5E7F-43F6-AAC7-3DC235F0A3BC}"/>
+    <hyperlink ref="D261" r:id="rId255" tooltip="Find the Losers of the Circular Game" display="https://leetcode.com/problems/find-the-losers-of-the-circular-game" xr:uid="{5FDA32D0-845C-495F-8E57-8C8BC451CBB3}"/>
+    <hyperlink ref="D262" r:id="rId256" tooltip="Group the People Given the Group Size They Belong To" display="https://leetcode.com/problems/group-the-people-given-the-group-size-they-belong-to" xr:uid="{063CD2A9-C37E-4D4C-9943-1D8B778B8040}"/>
+    <hyperlink ref="D263" r:id="rId257" tooltip="Convert an Array Into a 2D Array With Conditions" display="https://leetcode.com/problems/convert-an-array-into-a-2d-array-with-conditions" xr:uid="{D9371073-DFEA-486C-91C2-347557F5DFEF}"/>
+    <hyperlink ref="D264" r:id="rId258" tooltip="Find the Prefix Common Array of Two Arrays" display="https://leetcode.com/problems/find-the-prefix-common-array-of-two-arrays" xr:uid="{5113FF2B-EFD4-459D-A996-38B4C25ECB50}"/>
+    <hyperlink ref="D265" r:id="rId259" tooltip="Finding the Users Active Minutes" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{83EB4EC3-AD4E-4D2E-AEC8-69FB0A1DE778}"/>
+    <hyperlink ref="D266" r:id="rId260" tooltip="Count Number of Distinct Integers After Reverse Operations" display="https://leetcode.com/problems/count-number-of-distinct-integers-after-reverse-operations" xr:uid="{914A0EA1-022B-49B4-B54F-EDD0084E6401}"/>
+    <hyperlink ref="D267" r:id="rId261" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{48C01CEA-0FB4-457C-9FFE-4AAEEF497ABD}"/>
+    <hyperlink ref="D268" r:id="rId262" tooltip="Restore the Array From Adjacent Pairs" display="https://leetcode.com/problems/restore-the-array-from-adjacent-pairs" xr:uid="{7957028E-BC96-4D0D-BE02-AD86FC420DA9}"/>
+    <hyperlink ref="D269" r:id="rId263" tooltip="Find Occurrences of an Element in an Array" display="https://leetcode.com/problems/find-occurrences-of-an-element-in-an-array" xr:uid="{F0A3E2B9-0F10-4A17-ADE6-BA5DACC462C3}"/>
+    <hyperlink ref="D270" r:id="rId264" tooltip="Maximum Linear Stock Score" display="https://leetcode.com/problems/maximum-linear-stock-score" xr:uid="{F24996F7-7BE3-4D5A-A2DD-59ADF01497F1}"/>
+    <hyperlink ref="D271" r:id="rId265" tooltip="Number of Divisible Triplet Sums" display="https://leetcode.com/problems/number-of-divisible-triplet-sums" xr:uid="{CEB68359-1F9F-4FB1-94AB-2E06EA536359}"/>
+    <hyperlink ref="D272" r:id="rId266" tooltip="Replace Elements in an Array" display="https://leetcode.com/problems/replace-elements-in-an-array" xr:uid="{713B7F0B-EEF2-4F35-9159-2AF7034A74B8}"/>
+    <hyperlink ref="D273" r:id="rId267" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{2EF27E90-561C-44AB-B834-940B893B2284}"/>
+    <hyperlink ref="D274" r:id="rId268" tooltip="Count Artifacts That Can Be Extracted" display="https://leetcode.com/problems/count-artifacts-that-can-be-extracted" xr:uid="{54B6B831-F5BF-4D12-96AC-BAB837F026D0}"/>
+    <hyperlink ref="D275" r:id="rId269" tooltip="Number of Boomerangs" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{1620F1A9-3F13-45EE-83C8-5122F1D3F5B7}"/>
+    <hyperlink ref="D276" r:id="rId270" tooltip="Brick Wall" display="https://leetcode.com/problems/brick-wall" xr:uid="{AC4B98FF-F31E-4EFD-AAFE-47E7655F5C8F}"/>
+    <hyperlink ref="D277" r:id="rId271" tooltip="Task Scheduler II" display="https://leetcode.com/problems/task-scheduler-ii" xr:uid="{00DADE45-7746-4C72-9840-3987D9E11ECF}"/>
+    <hyperlink ref="D278" r:id="rId272" tooltip="Card Flipping Game" display="https://leetcode.com/problems/card-flipping-game" xr:uid="{C9CD57F4-1F32-4A3A-97FD-9D77624DC55D}"/>
+    <hyperlink ref="D279" r:id="rId273" tooltip="Smallest Integer Divisible by K" display="https://leetcode.com/problems/smallest-integer-divisible-by-k" xr:uid="{456AA4E8-5387-4FE0-99CB-ACF099A7B4A6}"/>
+    <hyperlink ref="D280" r:id="rId274" tooltip="Minimum Absolute Difference Queries" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{C549D34E-E513-4B63-AE7C-5B444972B1E7}"/>
+    <hyperlink ref="D281" r:id="rId275" tooltip="Count Number of Bad Pairs" display="https://leetcode.com/problems/count-number-of-bad-pairs" xr:uid="{E281DC72-491E-42E8-8C91-9EC26B908F54}"/>
+    <hyperlink ref="D282" r:id="rId276" tooltip="Find the Number of Distinct Colors Among the Balls" display="https://leetcode.com/problems/find-the-number-of-distinct-colors-among-the-balls" xr:uid="{69A4D232-12F3-495F-902E-6EB00A221A04}"/>
+    <hyperlink ref="D283" r:id="rId277" tooltip="Walking Robot Simulation" display="https://leetcode.com/problems/walking-robot-simulation" xr:uid="{FF5EDAAD-651F-4396-92C6-7A690241A943}"/>
+    <hyperlink ref="D284" r:id="rId278" tooltip="Prison Cells After N Days" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{D7D158E3-F042-49C6-BF2F-E0FF038B17FE}"/>
+    <hyperlink ref="D285" r:id="rId279" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{0652684C-FFD8-4ED4-B9D3-CBAB16C312BA}"/>
+    <hyperlink ref="D286" r:id="rId280" tooltip="Count Pairs of Points With Distance k" display="https://leetcode.com/problems/count-pairs-of-points-with-distance-k" xr:uid="{81535C99-BF55-4E7F-8EF8-CC7B0FA56D92}"/>
+    <hyperlink ref="D287" r:id="rId281" tooltip="Sum of Matrix After Queries" display="https://leetcode.com/problems/sum-of-matrix-after-queries" xr:uid="{B3A4247A-02C1-4F6A-9F5D-ABBB93FCE011}"/>
+    <hyperlink ref="D288" r:id="rId282" tooltip="Count Good Meals" display="https://leetcode.com/problems/count-good-meals" xr:uid="{446AAD47-0130-4ADC-BDB9-BFE1CF4BDC52}"/>
+    <hyperlink ref="D289" r:id="rId283" tooltip="Minimum Seconds to Equalize a Circular Array" display="https://leetcode.com/problems/minimum-seconds-to-equalize-a-circular-array" xr:uid="{90071DBF-87A2-49B0-8724-288459815C41}"/>
+    <hyperlink ref="D290" r:id="rId284" tooltip="Find the Number of Good Pairs II" display="https://leetcode.com/problems/find-the-number-of-good-pairs-ii" xr:uid="{C33EC4FC-CBF8-4C7C-A903-AC47F174B7C7}"/>
+    <hyperlink ref="D291" r:id="rId285" tooltip="Triples with Bitwise AND Equal To Zero" display="https://leetcode.com/problems/triples-with-bitwise-and-equal-to-zero" xr:uid="{85C4E959-CC6E-4D2B-BCDD-D3CF69E36D86}"/>
+    <hyperlink ref="D292" r:id="rId286" tooltip="First Missing Positive" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{6F1F9F27-65CD-43DE-B53A-775D300D4010}"/>
+    <hyperlink ref="D293" r:id="rId287" tooltip="Maximum Equal Frequency" display="https://leetcode.com/problems/maximum-equal-frequency" xr:uid="{6211E8EE-CC2B-42B1-B135-2DF29FD99479}"/>
+    <hyperlink ref="D294" r:id="rId288" tooltip="Grid Illumination" display="https://leetcode.com/problems/grid-illumination" xr:uid="{D564699E-2CA2-4079-A216-B5BDC3B0FD05}"/>
+    <hyperlink ref="H237" r:id="rId289" xr:uid="{ABFA22D0-897D-4B1D-9B6F-B49F901FEE9C}"/>
+    <hyperlink ref="H255" r:id="rId290" xr:uid="{C446933E-CCBB-4024-AEBC-93745EC0EDEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId233"/>
+  <pageSetup orientation="portrait" r:id="rId291"/>
 </worksheet>
 </file>
--- a/Ultimate Leetcode DSA Sheet.xlsx
+++ b/Ultimate Leetcode DSA Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SDE\03. Java-DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.SDE\04. Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D723B-93A2-4F82-AFC1-88227BB7AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F860D4-05F6-422F-9D32-EC17B18468FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B38EDBA5-01EF-4A3D-9C7E-11FF357A630F}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{B38EDBA5-01EF-4A3D-9C7E-11FF357A630F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2450,18 +2450,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,9 +2493,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2516,6 +2501,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2835,23 +2835,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
       <selection activeCell="B267" sqref="B267:H267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" customWidth="1"/>
-    <col min="5" max="5" width="52.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" customWidth="1"/>
-    <col min="9" max="12" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="62.19921875" customWidth="1"/>
+    <col min="5" max="5" width="52.296875" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" customWidth="1"/>
+    <col min="8" max="8" width="37.3984375" customWidth="1"/>
+    <col min="9" max="12" width="35.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2859,18 +2859,18 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
@@ -2893,18 +2893,18 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="63" t="s">
+    <row r="5" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>23</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>24</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>26</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>27</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>29</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>30</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>31</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>32</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>33</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>34</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>35</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>36</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>37</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>38</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>39</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>40</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>41</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>42</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>43</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>44</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>45</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>46</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>47</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>48</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>49</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>50</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>51</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>52</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>53</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>54</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>55</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>56</v>
       </c>
@@ -4362,23 +4362,23 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="63" t="s">
+    <row r="62" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
       <c r="I62" s="43"/>
       <c r="J62" s="43"/>
       <c r="L62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>57</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>58</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>59</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>60</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>61</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>62</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>63</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>64</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>65</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>66</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" s="9">
         <v>67</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" s="9">
         <v>68</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="9">
         <v>69</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="9">
         <v>70</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="9">
         <v>71</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>72</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="9">
         <v>73</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" s="9">
         <v>74</v>
       </c>
@@ -4846,23 +4846,23 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="63" t="s">
+    <row r="81" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
       <c r="I81" s="43"/>
       <c r="J81" s="43"/>
       <c r="L81" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
         <v>75</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
         <v>76</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>77</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
         <v>78</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>79</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
         <v>80</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
         <v>81</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
         <v>82</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
         <v>83</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
         <v>84</v>
       </c>
@@ -5122,23 +5122,23 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="63" t="s">
+    <row r="92" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
       <c r="L92" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" s="14">
         <v>85</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" s="14">
         <v>86</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" s="14">
         <v>87</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="14">
         <v>88</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" s="14">
         <v>89</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="14">
         <v>90</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="14">
         <v>91</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" s="14">
         <v>92</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="14">
         <v>93</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="14">
         <v>94</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="14">
         <v>95</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="14">
         <v>96</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="14">
         <v>97</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="14">
         <v>98</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="14">
         <v>99</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" s="14">
         <v>100</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" s="14">
         <v>101</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" s="14">
         <v>102</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" s="14">
         <v>103</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" s="14">
         <v>104</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="14">
         <v>105</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="14">
         <v>106</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="14">
         <v>107</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="14">
         <v>108</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="14">
         <v>109</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="14">
         <v>110</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="14">
         <v>111</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" s="14">
         <v>112</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="14">
         <v>113</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" s="14">
         <v>114</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" s="14">
         <v>115</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="14">
         <v>116</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" s="14">
         <v>117</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" s="14">
         <v>118</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B127" s="14">
         <v>119</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" s="14">
         <v>120</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B129" s="14">
         <v>121</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B130" s="14">
         <v>122</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B131" s="14">
         <v>123</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B132" s="14">
         <v>124</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B133" s="14">
         <v>125</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B134" s="14">
         <v>126</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B135" s="14">
         <v>127</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B136" s="14">
         <v>128</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B137" s="14">
         <v>129</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B138" s="14">
         <v>130</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B139" s="14">
         <v>131</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B140" s="14">
         <v>132</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" s="14">
         <v>133</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" s="14">
         <v>134</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" s="14">
         <v>135</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>136</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B145" s="14">
         <v>137</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>138</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147" s="14">
         <v>139</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" s="14">
         <v>140</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" s="14">
         <v>141</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" s="14">
         <v>142</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" s="14">
         <v>143</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" s="14">
         <v>144</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="14">
         <v>145</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" s="14">
         <v>146</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" s="14">
         <v>147</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" s="14">
         <v>148</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157" s="14">
         <v>149</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" s="14">
         <v>150</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="14">
         <v>151</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" s="14">
         <v>152</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B161" s="14">
         <v>153</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" s="14">
         <v>154</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B163" s="14">
         <v>155</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B164" s="14">
         <v>156</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B165" s="14">
         <v>157</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B166" s="14">
         <v>158</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B167" s="14">
         <v>159</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B168" s="14">
         <v>160</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B169" s="14">
         <v>161</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B170" s="14">
         <v>162</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B171" s="14">
         <v>163</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B172" s="14">
         <v>164</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B173" s="14">
         <v>165</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B174" s="14">
         <v>166</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B175" s="14">
         <v>167</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B176" s="14">
         <v>168</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B177" s="14">
         <v>169</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B178" s="14">
         <v>170</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B179" s="14">
         <v>171</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B180" s="14">
         <v>172</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B181" s="14">
         <v>173</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B182" s="14">
         <v>174</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B183" s="14">
         <v>175</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B184" s="14">
         <v>176</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B185" s="14">
         <v>177</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B186" s="14">
         <v>178</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B187" s="14">
         <v>179</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B188" s="14">
         <v>180</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B189" s="14">
         <v>181</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B190" s="14">
         <v>182</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B191" s="14">
         <v>183</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B192" s="14">
         <v>184</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B193" s="14">
         <v>185</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" s="14">
         <v>186</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" s="14">
         <v>187</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" s="14">
         <v>188</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" s="14">
         <v>189</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" s="14">
         <v>190</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" s="14">
         <v>191</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" s="14">
         <v>192</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B201" s="14">
         <v>193</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B202" s="14">
         <v>194</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B203" s="14">
         <v>195</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B204" s="14">
         <v>196</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B205" s="14">
         <v>197</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B206" s="14">
         <v>198</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B207" s="14">
         <v>199</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B208" s="14">
         <v>200</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" s="14">
         <v>201</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B210" s="14">
         <v>202</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="14">
         <v>203</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="14">
         <v>204</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="14">
         <v>205</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" s="14">
         <v>206</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" s="14">
         <v>207</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" s="14">
         <v>208</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" s="14">
         <v>209</v>
       </c>
@@ -8390,23 +8390,23 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="63" t="s">
+    <row r="218" spans="2:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C218" s="63"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="63"/>
-      <c r="H218" s="63"/>
+      <c r="C218" s="81"/>
+      <c r="D218" s="81"/>
+      <c r="E218" s="81"/>
+      <c r="F218" s="81"/>
+      <c r="G218" s="81"/>
+      <c r="H218" s="81"/>
       <c r="I218" s="43"/>
       <c r="J218" s="43"/>
       <c r="L218" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B219" s="14">
         <v>210</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B220" s="14">
         <v>211</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B221" s="14">
         <v>212</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B222" s="14">
         <v>213</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B223" s="14">
         <v>214</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B224" s="14">
         <v>215</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B225" s="14">
         <v>216</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B226" s="14">
         <v>217</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B227" s="14">
         <v>218</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="14">
         <v>219</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B229" s="14">
         <v>220</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B230" s="14">
         <v>221</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B231" s="14">
         <v>222</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B232" s="14">
         <v>223</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B233" s="14">
         <v>224</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B234" s="14">
         <v>225</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B235" s="14">
         <v>226</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B236" s="14">
         <v>227</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B237" s="14">
         <v>228</v>
       </c>
@@ -8900,31 +8900,31 @@
         <v>489</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="60" t="s">
+    <row r="238" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="78" t="s">
         <v>679</v>
       </c>
-      <c r="C238" s="61"/>
-      <c r="D238" s="61"/>
-      <c r="E238" s="61"/>
-      <c r="F238" s="61"/>
-      <c r="G238" s="61"/>
-      <c r="H238" s="61"/>
-    </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B239" s="75">
+      <c r="C238" s="79"/>
+      <c r="D238" s="79"/>
+      <c r="E238" s="79"/>
+      <c r="F238" s="79"/>
+      <c r="G238" s="79"/>
+      <c r="H238" s="79"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B239" s="71">
         <v>229</v>
       </c>
-      <c r="C239" s="75">
+      <c r="C239" s="71">
         <v>1480</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E239" s="76" t="s">
+      <c r="E239" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F239" s="77" t="s">
+      <c r="F239" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G239" s="8"/>
@@ -8933,20 +8933,20 @@
       </c>
       <c r="I239" s="43"/>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B240" s="75">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B240" s="71">
         <v>230</v>
       </c>
-      <c r="C240" s="75">
+      <c r="C240" s="71">
         <v>2574</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="E240" s="76" t="s">
+      <c r="E240" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F240" s="77" t="s">
+      <c r="F240" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G240" s="8"/>
@@ -8955,20 +8955,20 @@
       </c>
       <c r="I240" s="43"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B241" s="75">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241" s="71">
         <v>231</v>
       </c>
-      <c r="C241" s="75">
+      <c r="C241" s="71">
         <v>2485</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="E241" s="76" t="s">
+      <c r="E241" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="F241" s="77" t="s">
+      <c r="F241" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G241" s="8"/>
@@ -8977,20 +8977,20 @@
       </c>
       <c r="I241" s="43"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B242" s="75">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242" s="71">
         <v>232</v>
       </c>
-      <c r="C242" s="75">
+      <c r="C242" s="71">
         <v>1732</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="E242" s="76" t="s">
+      <c r="E242" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F242" s="77" t="s">
+      <c r="F242" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G242" s="8"/>
@@ -8999,20 +8999,20 @@
       </c>
       <c r="I242" s="43"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B243" s="75">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243" s="71">
         <v>233</v>
       </c>
-      <c r="C243" s="75">
+      <c r="C243" s="71">
         <v>1588</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E243" s="76" t="s">
+      <c r="E243" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="F243" s="77" t="s">
+      <c r="F243" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G243" s="8"/>
@@ -9021,20 +9021,20 @@
       </c>
       <c r="I243" s="43"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B244" s="75">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244" s="71">
         <v>234</v>
       </c>
-      <c r="C244" s="75">
+      <c r="C244" s="71">
         <v>3028</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="E244" s="76" t="s">
+      <c r="E244" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="F244" s="77" t="s">
+      <c r="F244" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G244" s="8"/>
@@ -9043,20 +9043,20 @@
       </c>
       <c r="I244" s="43"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B245" s="75">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245" s="71">
         <v>235</v>
       </c>
-      <c r="C245" s="75">
+      <c r="C245" s="71">
         <v>1991</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E245" s="76" t="s">
+      <c r="E245" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F245" s="77" t="s">
+      <c r="F245" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G245" s="8"/>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I245" s="43"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B246" s="75">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246" s="71">
         <v>236</v>
       </c>
-      <c r="C246" s="75">
+      <c r="C246" s="71">
         <v>1413</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E246" s="76" t="s">
+      <c r="E246" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F246" s="77" t="s">
+      <c r="F246" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G246" s="8"/>
@@ -9087,20 +9087,20 @@
       </c>
       <c r="I246" s="43"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B247" s="75">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247" s="71">
         <v>237</v>
       </c>
-      <c r="C247" s="75">
+      <c r="C247" s="71">
         <v>724</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E247" s="76" t="s">
+      <c r="E247" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F247" s="77" t="s">
+      <c r="F247" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G247" s="8"/>
@@ -9109,20 +9109,20 @@
       </c>
       <c r="I247" s="43"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B248" s="75">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248" s="71">
         <v>238</v>
       </c>
-      <c r="C248" s="75">
+      <c r="C248" s="71">
         <v>1829</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="E248" s="76" t="s">
+      <c r="E248" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="F248" s="78" t="s">
+      <c r="F248" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G248" s="8"/>
@@ -9131,20 +9131,20 @@
       </c>
       <c r="I248" s="43"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B249" s="75">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" s="71">
         <v>239</v>
       </c>
-      <c r="C249" s="75">
+      <c r="C249" s="71">
         <v>1310</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="E249" s="76" t="s">
+      <c r="E249" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="F249" s="78" t="s">
+      <c r="F249" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G249" s="8"/>
@@ -9153,20 +9153,20 @@
       </c>
       <c r="I249" s="43"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B250" s="75">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250" s="71">
         <v>240</v>
       </c>
-      <c r="C250" s="75">
+      <c r="C250" s="71">
         <v>370</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E250" s="76" t="s">
+      <c r="E250" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F250" s="78" t="s">
+      <c r="F250" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G250" s="8"/>
@@ -9175,20 +9175,20 @@
       </c>
       <c r="I250" s="43"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B251" s="75">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="71">
         <v>241</v>
       </c>
-      <c r="C251" s="75">
+      <c r="C251" s="71">
         <v>2640</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="E251" s="76" t="s">
+      <c r="E251" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F251" s="78" t="s">
+      <c r="F251" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G251" s="8"/>
@@ -9197,20 +9197,20 @@
       </c>
       <c r="I251" s="43"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B252" s="75">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252" s="71">
         <v>242</v>
       </c>
-      <c r="C252" s="75">
+      <c r="C252" s="71">
         <v>1685</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="E252" s="76" t="s">
+      <c r="E252" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="F252" s="78" t="s">
+      <c r="F252" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G252" s="8"/>
@@ -9219,20 +9219,20 @@
       </c>
       <c r="I252" s="43"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B253" s="75">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253" s="71">
         <v>243</v>
       </c>
-      <c r="C253" s="75">
+      <c r="C253" s="71">
         <v>238</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="E253" s="76" t="s">
+      <c r="E253" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F253" s="78" t="s">
+      <c r="F253" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G253" s="8"/>
@@ -9241,20 +9241,20 @@
       </c>
       <c r="I253" s="43"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B254" s="75">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="71">
         <v>244</v>
       </c>
-      <c r="C254" s="75">
+      <c r="C254" s="71">
         <v>2237</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="E254" s="76" t="s">
+      <c r="E254" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F254" s="78" t="s">
+      <c r="F254" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G254" s="8"/>
@@ -9263,20 +9263,20 @@
       </c>
       <c r="I254" s="43"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B255" s="75">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255" s="71">
         <v>245</v>
       </c>
-      <c r="C255" s="75">
+      <c r="C255" s="71">
         <v>1664</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="E255" s="76" t="s">
+      <c r="E255" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F255" s="78" t="s">
+      <c r="F255" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G255" s="8"/>
@@ -9285,20 +9285,20 @@
       </c>
       <c r="I255" s="43"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B256" s="75">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256" s="71">
         <v>246</v>
       </c>
-      <c r="C256" s="75">
+      <c r="C256" s="71">
         <v>2219</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="E256" s="76" t="s">
+      <c r="E256" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F256" s="78" t="s">
+      <c r="F256" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G256" s="8"/>
@@ -9307,20 +9307,20 @@
       </c>
       <c r="I256" s="43"/>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B257" s="75">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" s="71">
         <v>247</v>
       </c>
-      <c r="C257" s="75">
+      <c r="C257" s="71">
         <v>1109</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="E257" s="76" t="s">
+      <c r="E257" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F257" s="78" t="s">
+      <c r="F257" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G257" s="8"/>
@@ -9329,20 +9329,20 @@
       </c>
       <c r="I257" s="43"/>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B258" s="75">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" s="71">
         <v>248</v>
       </c>
-      <c r="C258" s="75">
+      <c r="C258" s="71">
         <v>2270</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="E258" s="76" t="s">
+      <c r="E258" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F258" s="78" t="s">
+      <c r="F258" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G258" s="8"/>
@@ -9351,20 +9351,20 @@
       </c>
       <c r="I258" s="43"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B259" s="75">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B259" s="71">
         <v>249</v>
       </c>
-      <c r="C259" s="75">
+      <c r="C259" s="71">
         <v>2256</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="E259" s="76" t="s">
+      <c r="E259" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F259" s="78" t="s">
+      <c r="F259" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G259" s="8"/>
@@ -9373,20 +9373,20 @@
       </c>
       <c r="I259" s="43"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B260" s="75">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="71">
         <v>250</v>
       </c>
-      <c r="C260" s="75">
+      <c r="C260" s="71">
         <v>3096</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="E260" s="76" t="s">
+      <c r="E260" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F260" s="78" t="s">
+      <c r="F260" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G260" s="8"/>
@@ -9395,20 +9395,20 @@
       </c>
       <c r="I260" s="43"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B261" s="75">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="71">
         <v>251</v>
       </c>
-      <c r="C261" s="75">
+      <c r="C261" s="71">
         <v>3147</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="E261" s="76" t="s">
+      <c r="E261" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F261" s="78" t="s">
+      <c r="F261" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G261" s="8"/>
@@ -9417,20 +9417,20 @@
       </c>
       <c r="I261" s="43"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B262" s="75">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="71">
         <v>252</v>
       </c>
-      <c r="C262" s="75">
+      <c r="C262" s="71">
         <v>2438</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E262" s="76" t="s">
+      <c r="E262" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="F262" s="78" t="s">
+      <c r="F262" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G262" s="8"/>
@@ -9439,20 +9439,20 @@
       </c>
       <c r="I262" s="43"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B263" s="75">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="71">
         <v>253</v>
       </c>
-      <c r="C263" s="75">
+      <c r="C263" s="71">
         <v>2145</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="E263" s="76" t="s">
+      <c r="E263" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F263" s="78" t="s">
+      <c r="F263" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G263" s="8"/>
@@ -9461,20 +9461,20 @@
       </c>
       <c r="I263" s="43"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B264" s="75">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="71">
         <v>254</v>
       </c>
-      <c r="C264" s="75">
+      <c r="C264" s="71">
         <v>1744</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="E264" s="76" t="s">
+      <c r="E264" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F264" s="78" t="s">
+      <c r="F264" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G264" s="8"/>
@@ -9483,20 +9483,20 @@
       </c>
       <c r="I264" s="43"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B265" s="75">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265" s="71">
         <v>255</v>
       </c>
-      <c r="C265" s="75">
+      <c r="C265" s="71">
         <v>2772</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="E265" s="76" t="s">
+      <c r="E265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F265" s="78" t="s">
+      <c r="F265" s="74" t="s">
         <v>42</v>
       </c>
       <c r="G265" s="8"/>
@@ -9505,20 +9505,20 @@
       </c>
       <c r="I265" s="43"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B266" s="75">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266" s="71">
         <v>256</v>
       </c>
-      <c r="C266" s="79">
+      <c r="C266" s="82">
         <v>798</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E266" s="76" t="s">
+      <c r="E266" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="F266" s="80" t="s">
+      <c r="F266" s="75" t="s">
         <v>60</v>
       </c>
       <c r="G266" s="8"/>
@@ -9527,797 +9527,797 @@
       </c>
       <c r="I266" s="43"/>
     </row>
-    <row r="267" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="81" t="s">
+    <row r="267" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="C267" s="82"/>
-      <c r="D267" s="82"/>
-      <c r="E267" s="82"/>
-      <c r="F267" s="82"/>
-      <c r="G267" s="82"/>
-      <c r="H267" s="82"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C267" s="77"/>
+      <c r="D267" s="77"/>
+      <c r="E267" s="77"/>
+      <c r="F267" s="77"/>
+      <c r="G267" s="77"/>
+      <c r="H267" s="77"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B295" s="19"/>
       <c r="F295" s="48"/>
       <c r="H295" s="49"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A296" s="70"/>
-      <c r="B296" s="72"/>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="66"/>
+      <c r="B296" s="68"/>
       <c r="H296" s="49"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A297" s="70"/>
-      <c r="B297" s="69"/>
-      <c r="G297" s="69"/>
-      <c r="H297" s="69"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A298" s="70"/>
-      <c r="B298" s="74"/>
-      <c r="G298" s="70"/>
-      <c r="H298" s="71"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A299" s="70"/>
-      <c r="B299" s="73"/>
-      <c r="H299" s="66"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B300" s="65"/>
-      <c r="H300" s="66"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B301" s="64"/>
-      <c r="H301" s="66"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B302" s="64"/>
-      <c r="H302" s="66"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B303" s="65"/>
-      <c r="H303" s="66"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B304" s="65"/>
-      <c r="H304" s="66"/>
-    </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B305" s="64"/>
-      <c r="H305" s="66"/>
-    </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B306" s="64"/>
-      <c r="H306" s="66"/>
-    </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B307" s="65"/>
-      <c r="H307" s="66"/>
-    </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B308" s="65"/>
-      <c r="H308" s="66"/>
-    </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B309" s="65"/>
-      <c r="H309" s="66"/>
-    </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B310" s="65"/>
-      <c r="H310" s="66"/>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B311" s="65"/>
-      <c r="H311" s="66"/>
-    </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B312" s="64"/>
-      <c r="H312" s="66"/>
-    </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B313" s="65"/>
-      <c r="H313" s="66"/>
-    </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B314" s="65"/>
-      <c r="H314" s="66"/>
-    </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B315" s="65"/>
-      <c r="H315" s="66"/>
-    </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B316" s="65"/>
-      <c r="H316" s="66"/>
-    </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B317" s="65"/>
-      <c r="H317" s="66"/>
-    </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B318" s="65"/>
-      <c r="H318" s="66"/>
-    </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B319" s="65"/>
-      <c r="H319" s="66"/>
-    </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B320" s="65"/>
-      <c r="H320" s="66"/>
-    </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B321" s="65"/>
-      <c r="H321" s="66"/>
-    </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B322" s="65"/>
-      <c r="H322" s="66"/>
-    </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B323" s="65"/>
-      <c r="H323" s="66"/>
-    </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B324" s="65"/>
-      <c r="H324" s="66"/>
-    </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B325" s="67"/>
-      <c r="H325" s="68"/>
-    </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="66"/>
+      <c r="B297" s="65"/>
+      <c r="G297" s="65"/>
+      <c r="H297" s="65"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="66"/>
+      <c r="B298" s="70"/>
+      <c r="G298" s="66"/>
+      <c r="H298" s="67"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="66"/>
+      <c r="B299" s="69"/>
+      <c r="H299" s="62"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B300" s="61"/>
+      <c r="H300" s="62"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B301" s="60"/>
+      <c r="H301" s="62"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B302" s="60"/>
+      <c r="H302" s="62"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B303" s="61"/>
+      <c r="H303" s="62"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B304" s="61"/>
+      <c r="H304" s="62"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B305" s="60"/>
+      <c r="H305" s="62"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B306" s="60"/>
+      <c r="H306" s="62"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B307" s="61"/>
+      <c r="H307" s="62"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B308" s="61"/>
+      <c r="H308" s="62"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B309" s="61"/>
+      <c r="H309" s="62"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B310" s="61"/>
+      <c r="H310" s="62"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B311" s="61"/>
+      <c r="H311" s="62"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B312" s="60"/>
+      <c r="H312" s="62"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B313" s="61"/>
+      <c r="H313" s="62"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B314" s="61"/>
+      <c r="H314" s="62"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B315" s="61"/>
+      <c r="H315" s="62"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B316" s="61"/>
+      <c r="H316" s="62"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B317" s="61"/>
+      <c r="H317" s="62"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B318" s="61"/>
+      <c r="H318" s="62"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B319" s="61"/>
+      <c r="H319" s="62"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B320" s="61"/>
+      <c r="H320" s="62"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B321" s="61"/>
+      <c r="H321" s="62"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B322" s="61"/>
+      <c r="H322" s="62"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B323" s="61"/>
+      <c r="H323" s="62"/>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B324" s="61"/>
+      <c r="H324" s="62"/>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B325" s="63"/>
+      <c r="H325" s="64"/>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C326" s="21"/>
       <c r="D326" s="22"/>
       <c r="E326" s="27"/>
       <c r="F326" s="28"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C327" s="21"/>
       <c r="D327" s="22"/>
       <c r="E327" s="27"/>
       <c r="F327" s="28"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C328" s="21"/>
       <c r="D328" s="22"/>
       <c r="E328" s="23"/>
       <c r="F328" s="28"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C329" s="21"/>
       <c r="D329" s="22"/>
       <c r="E329" s="23"/>
       <c r="F329" s="28"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C330" s="21"/>
       <c r="D330" s="22"/>
       <c r="E330" s="23"/>
       <c r="F330" s="28"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C331" s="21"/>
       <c r="D331" s="22"/>
       <c r="E331" s="27"/>
       <c r="F331" s="28"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C332" s="21"/>
       <c r="D332" s="22"/>
       <c r="E332" s="23"/>
       <c r="F332" s="28"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C333" s="21"/>
       <c r="D333" s="22"/>
       <c r="E333" s="27"/>
       <c r="F333" s="28"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C334" s="21"/>
       <c r="D334" s="22"/>
       <c r="E334" s="27"/>
       <c r="F334" s="28"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C335" s="21"/>
       <c r="D335" s="22"/>
       <c r="E335" s="23"/>
       <c r="F335" s="28"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C336" s="21"/>
       <c r="D336" s="22"/>
       <c r="E336" s="23"/>
       <c r="F336" s="28"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C337" s="21"/>
       <c r="D337" s="22"/>
       <c r="E337" s="23"/>
       <c r="F337" s="28"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C338" s="21"/>
       <c r="D338" s="22"/>
       <c r="E338" s="23"/>
       <c r="F338" s="28"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C339" s="21"/>
       <c r="D339" s="22"/>
       <c r="E339" s="23"/>
       <c r="F339" s="28"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C340" s="21"/>
       <c r="D340" s="22"/>
       <c r="E340" s="23"/>
       <c r="F340" s="28"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C341" s="21"/>
       <c r="D341" s="22"/>
       <c r="E341" s="23"/>
       <c r="F341" s="28"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C342" s="21"/>
       <c r="D342" s="22"/>
       <c r="E342" s="27"/>
       <c r="F342" s="28"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C343" s="21"/>
       <c r="D343" s="22"/>
       <c r="E343" s="27"/>
       <c r="F343" s="28"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C344" s="21"/>
       <c r="D344" s="22"/>
       <c r="E344" s="23"/>
       <c r="F344" s="28"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C345" s="21"/>
       <c r="D345" s="22"/>
       <c r="E345" s="23"/>
       <c r="F345" s="28"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C346" s="21"/>
       <c r="D346" s="22"/>
       <c r="E346" s="27"/>
       <c r="F346" s="28"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C347" s="21"/>
       <c r="D347" s="22"/>
       <c r="E347" s="23"/>
       <c r="F347" s="24"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C348" s="21"/>
       <c r="D348" s="22"/>
       <c r="E348" s="23"/>
       <c r="F348" s="24"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C349" s="21"/>
       <c r="D349" s="22"/>
       <c r="E349" s="23"/>
       <c r="F349" s="24"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C350" s="21"/>
       <c r="D350" s="22"/>
       <c r="E350" s="23"/>
       <c r="F350" s="24"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="29"/>
       <c r="C351" s="21"/>
       <c r="D351" s="22"/>
       <c r="E351" s="23"/>
       <c r="F351" s="24"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="19"/>
       <c r="C352" s="21"/>
       <c r="D352" s="22"/>
       <c r="E352" s="23"/>
       <c r="F352" s="24"/>
     </row>
-    <row r="353" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:6" ht="17.75" x14ac:dyDescent="0.3">
       <c r="B353" s="20"/>
       <c r="C353" s="30"/>
       <c r="D353" s="30"/>
       <c r="E353" s="30"/>
       <c r="F353" s="30"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="20"/>
       <c r="C354" s="31"/>
       <c r="D354" s="32"/>
       <c r="E354" s="33"/>
       <c r="F354" s="34"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="19"/>
       <c r="C355" s="31"/>
       <c r="D355" s="32"/>
       <c r="E355" s="27"/>
       <c r="F355" s="35"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="19"/>
       <c r="C356" s="31"/>
       <c r="D356" s="32"/>
       <c r="E356" s="33"/>
       <c r="F356" s="35"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="20"/>
       <c r="C357" s="31"/>
       <c r="D357" s="32"/>
       <c r="E357" s="33"/>
       <c r="F357" s="35"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="19"/>
       <c r="C358" s="31"/>
       <c r="D358" s="32"/>
       <c r="E358" s="33"/>
       <c r="F358" s="35"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="19"/>
       <c r="C359" s="31"/>
       <c r="D359" s="32"/>
       <c r="E359" s="27"/>
       <c r="F359" s="35"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="19"/>
       <c r="C360" s="31"/>
       <c r="D360" s="32"/>
       <c r="E360" s="27"/>
       <c r="F360" s="36"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="19"/>
       <c r="C361" s="31"/>
       <c r="D361" s="32"/>
       <c r="E361" s="27"/>
       <c r="F361" s="36"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="19"/>
       <c r="C362" s="31"/>
       <c r="D362" s="32"/>
       <c r="E362" s="33"/>
       <c r="F362" s="36"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="20"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" s="20"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" s="20"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395" s="20"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" s="20"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433" s="20"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442" s="20"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B470" s="20"/>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B476" s="19"/>
       <c r="C476" s="29"/>
       <c r="D476" s="29"/>
       <c r="E476" s="29"/>
       <c r="F476" s="39"/>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B477" s="40"/>
       <c r="C477" s="40"/>
       <c r="D477" s="40"/>
       <c r="E477" s="40"/>
       <c r="F477" s="27"/>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B478" s="29"/>
       <c r="C478" s="29"/>
       <c r="D478" s="29"/>
       <c r="E478" s="29"/>
       <c r="F478" s="39"/>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B480" s="20"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481" s="20"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482" s="41"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488" s="20"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493" s="20"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494" s="20"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497" s="19"/>
     </row>
   </sheetData>
@@ -10609,9 +10609,9 @@
       <selection sqref="A1:G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="53.75" x14ac:dyDescent="0.3">
       <c r="A1" s="50">
         <v>229</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="53.75" x14ac:dyDescent="0.3">
       <c r="A2" s="50">
         <v>230</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="50">
         <v>231</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="112" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A4" s="50">
         <v>232</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>233</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="53.75" x14ac:dyDescent="0.3">
       <c r="A6" s="50">
         <v>234</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="53.75" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <v>235</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A8" s="50">
         <v>236</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A9" s="50">
         <v>237</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>238</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="40.299999999999997" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>239</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="40.299999999999997" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>240</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>241</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>242</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="40.299999999999997" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
         <v>243</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>244</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>245</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A18" s="50">
         <v>246</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A19" s="50">
         <v>247</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A20" s="50">
         <v>248</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A21" s="50">
         <v>249</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A22" s="50">
         <v>250</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A23" s="50">
         <v>251</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="140" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="134.35" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
         <v>252</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A25" s="50">
         <v>253</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
         <v>254</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A27" s="50">
         <v>255</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="126" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="120.9" x14ac:dyDescent="0.3">
       <c r="A28" s="50">
         <v>256</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A29" s="50">
         <v>257</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A30" s="50">
         <v>258</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A31" s="50">
         <v>259</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A32" s="50">
         <v>260</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A33" s="50">
         <v>261</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A34" s="50">
         <v>262</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A35" s="50">
         <v>263</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A36" s="50">
         <v>264</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A37" s="50">
         <v>265</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A38" s="50">
         <v>266</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A39" s="50">
         <v>267</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A40" s="50">
         <v>268</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A41" s="50">
         <v>269</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <v>270</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A43" s="50">
         <v>271</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A44" s="50">
         <v>272</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A45" s="50">
         <v>273</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A46" s="50">
         <v>274</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A47" s="50">
         <v>275</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A48" s="50">
         <v>276</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A49" s="50">
         <v>277</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A50" s="50">
         <v>278</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="98" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="94.05" x14ac:dyDescent="0.3">
       <c r="A51" s="50">
         <v>279</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A52" s="50">
         <v>280</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="80.599999999999994" x14ac:dyDescent="0.3">
       <c r="A53" s="50">
         <v>281</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A54" s="50">
         <v>282</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A55" s="50">
         <v>283</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A56" s="50">
         <v>284</v>
       </c>
